--- a/HA2_Liste/Excel_Tabellen/Teams.xlsx
+++ b/HA2_Liste/Excel_Tabellen/Teams.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\source\repos\HA2_Liste\HA2_Liste\Excel_Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE84A3AC-2B36-49EA-A37B-454CFEC6CB0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D3CB5-2277-4495-BCF5-915E41D595A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
+    <workbookView xWindow="5655" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaften" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle" sheetId="2" r:id="rId2"/>
     <sheet name="Spielplan" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Teamname</t>
   </si>
@@ -129,14 +129,16 @@
   </si>
   <si>
     <t>Team Auswärts</t>
+  </si>
+  <si>
+    <t>Spielnr.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,19 +176,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Standard" xfId="1" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98CDC2F-04B0-4000-9CD2-E547899965E2}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -506,110 +507,109 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="19.85546875" customWidth="1" style="2"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1" style="2"/>
+    <col min="1" max="1" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1"/>
+    <row r="20" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -617,16 +617,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D670B5C-AF20-4DBA-856A-5513693A1D28}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="1" width="13.140625" customWidth="1" style="2"/>
+    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -655,229 +655,210 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E2D04C-2CF0-4355-B854-41A566789419}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="1" width="14.5703125" customWidth="1" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010062CAE64AA7F69C46B54A678A6BE0A651" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af5f6e00b9f0571a5f9ee831358125ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c2272e96bf67ea3414f68801711290">
     <xsd:element name="properties">
@@ -991,22 +972,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72305C2-23EF-4187-B10B-4BEF1AE453A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21FF3668-C3F7-433B-9048-013C2A79257C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F490B140-0BE5-4703-B822-792654CBA302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1020,27 +1009,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21FF3668-C3F7-433B-9048-013C2A79257C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72305C2-23EF-4187-B10B-4BEF1AE453A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/HA2_Liste/Excel_Tabellen/Teams.xlsx
+++ b/HA2_Liste/Excel_Tabellen/Teams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\source\repos\HA2_Liste\HA2_Liste\Excel_Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Documents\GitHub\Hausaufgabe2\HA2_Liste\Excel_Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D3CB5-2277-4495-BCF5-915E41D595A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaften" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Teamname</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Tordifferenz</t>
-  </si>
-  <si>
-    <t>FC Bayern</t>
   </si>
   <si>
     <t>Spieltag</t>
@@ -179,12 +176,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -617,13 +616,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D670B5C-AF20-4DBA-856A-5513693A1D28}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -633,120 +634,238 @@
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
+      <c r="A2" s="2"/>
+      <c r="C2" s="6">
+        <f>D2*3+E2*1</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <f>G2-H2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
+      <c r="A3" s="2"/>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C19" si="0">D3*3+E3*1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>G3-H3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
+      <c r="A4" s="2"/>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <f>G4-H4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
+      <c r="A5" s="2"/>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>G5-H5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
+      <c r="A6" s="2"/>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f>G6-H6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
+      <c r="A7" s="2"/>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <f>G7-H7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
+      <c r="A8" s="2"/>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f>G8-H8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
+      <c r="A9" s="2"/>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <f>G9-H9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
+      <c r="A10" s="2"/>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f>G10-H10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
+      <c r="A11" s="2"/>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f>G11-H11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
+      <c r="A12" s="2"/>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f>G12-H12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
+      <c r="A13" s="2"/>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <f>G13-H13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
+      <c r="A14" s="2"/>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <f>G14-H14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
+      <c r="A15" s="2"/>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f>G15-H15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
+      <c r="A16" s="2"/>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <f>G16-H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <f>G17-H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f>G18-H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f>G19-H19</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I22">
+    <sortCondition ref="C2:C22"/>
+    <sortCondition ref="I2:I22"/>
+    <sortCondition ref="D2:D22"/>
+    <sortCondition ref="E2:E22"/>
+    <sortCondition descending="1" ref="F2:F22"/>
+    <sortCondition ref="G2:G22"/>
+    <sortCondition descending="1" ref="H2:H22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -754,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E2D04C-2CF0-4355-B854-41A566789419}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -766,19 +885,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>25</v>
@@ -844,21 +963,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010062CAE64AA7F69C46B54A678A6BE0A651" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af5f6e00b9f0571a5f9ee831358125ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c2272e96bf67ea3414f68801711290">
     <xsd:element name="properties">
@@ -972,10 +1076,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72305C2-23EF-4187-B10B-4BEF1AE453A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F490B140-0BE5-4703-B822-792654CBA302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -996,17 +1123,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F490B140-0BE5-4703-B822-792654CBA302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72305C2-23EF-4187-B10B-4BEF1AE453A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/HA2_Liste/Excel_Tabellen/Teams.xlsx
+++ b/HA2_Liste/Excel_Tabellen/Teams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Documents\GitHub\Hausaufgabe2\HA2_Liste\Excel_Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\OneDrive\Documents\GitHub\Hausaufgabe2\HA2_Liste\Excel_Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{921298C1-EE09-4945-9BDA-4D66EA421F55}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
+    <workbookView xWindow="14070" yWindow="2055" windowWidth="11925" windowHeight="11385" activeTab="2" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaften" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="34">
   <si>
     <t>Teamname</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Bor. Mönchengladbach</t>
   </si>
   <si>
-    <t>Bayern München</t>
+    <t>FC Bayern München</t>
   </si>
   <si>
     <t>SC Paderborn 07</t>
@@ -122,13 +122,19 @@
     <t>Spieltag</t>
   </si>
   <si>
-    <t>Team Heim</t>
+    <t>Spielnr.</t>
   </si>
   <si>
-    <t>Team Auswärts</t>
+    <t>Heim</t>
   </si>
   <si>
-    <t>Spielnr.</t>
+    <t>Tore Heim</t>
+  </si>
+  <si>
+    <t>Gast</t>
+  </si>
+  <si>
+    <t>Tore Gast</t>
   </si>
 </sst>
 </file>
@@ -176,14 +182,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,111 +521,111 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -616,346 +636,6414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D670B5C-AF20-4DBA-856A-5513693A1D28}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.42578125" style="6"/>
-    <col min="5" max="5" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="11.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="C2" s="6">
+      <c r="A2" s="1"/>
+      <c r="C2" s="10">
         <f>D2*3+E2*1</f>
         <v>0</v>
       </c>
-      <c r="I2" s="6">
-        <f>G2-H2</f>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I19" si="0">G2-H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C19" si="0">D3*3+E3*1</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <f>G3-H3</f>
+      <c r="A3" s="1"/>
+      <c r="C3" s="10">
+        <f>D3*3+E3*1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="C4" s="6">
+      <c r="A4" s="1"/>
+      <c r="C4" s="10">
+        <f>D4*3+E4*1</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
-        <f>G4-H4</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="C5" s="6">
+      <c r="A5" s="1"/>
+      <c r="C5" s="10">
+        <f>D5*3+E5*1</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
-        <f>G5-H5</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="C6" s="6">
+      <c r="A6" s="1"/>
+      <c r="C6" s="10">
+        <f>D6*3+E6*1</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
-        <f>G6-H6</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="C7" s="6">
+      <c r="A7" s="1"/>
+      <c r="C7" s="10">
+        <f>D7*3+E7*1</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <f>G7-H7</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="C8" s="6">
+      <c r="A8" s="1"/>
+      <c r="C8" s="10">
+        <f>D8*3+E8*1</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
-        <f>G8-H8</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="C9" s="6">
+      <c r="A9" s="1"/>
+      <c r="C9" s="10">
+        <f>D9*3+E9*1</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
-        <f>G9-H9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="C10" s="6">
+      <c r="A10" s="1"/>
+      <c r="C10" s="10">
+        <f>D10*3+E10*1</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
-        <f>G10-H10</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="C11" s="6">
+      <c r="A11" s="1"/>
+      <c r="C11" s="10">
+        <f>D11*3+E11*1</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
-        <f>G11-H11</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="C12" s="6">
+      <c r="A12" s="1"/>
+      <c r="C12" s="10">
+        <f>D12*3+E12*1</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="6">
-        <f>G12-H12</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="C13" s="6">
+      <c r="A13" s="1"/>
+      <c r="C13" s="10">
+        <f>D13*3+E13*1</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="6">
-        <f>G13-H13</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="C14" s="6">
+      <c r="A14" s="1"/>
+      <c r="C14" s="10">
+        <f>D14*3+E14*1</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="6">
-        <f>G14-H14</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="6">
+      <c r="A15" s="1"/>
+      <c r="C15" s="10">
+        <f>D15*3+E15*1</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="6">
-        <f>G15-H15</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="C16" s="6">
+      <c r="A16" s="1"/>
+      <c r="C16" s="10">
+        <f>D16*3+E16*1</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="6">
-        <f>G16-H16</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="C17" s="6">
+      <c r="A17" s="1"/>
+      <c r="C17" s="10">
+        <f>D17*3+E17*1</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="6">
-        <f>G17-H17</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="C18" s="6">
+      <c r="A18" s="1"/>
+      <c r="C18" s="10">
+        <f>D18*3+E18*1</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="6">
-        <f>G18-H18</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="C19" s="6">
+      <c r="A19" s="1"/>
+      <c r="C19" s="10">
+        <f>D19*3+E19*1</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="6">
-        <f>G19-H19</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I22">
-    <sortCondition ref="C2:C22"/>
-    <sortCondition ref="I2:I22"/>
-    <sortCondition ref="D2:D22"/>
-    <sortCondition ref="E2:E22"/>
-    <sortCondition descending="1" ref="F2:F22"/>
-    <sortCondition ref="G2:G22"/>
-    <sortCondition descending="1" ref="H2:H22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C19">
+    <sortCondition descending="1" ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E2D04C-2CF0-4355-B854-41A566789419}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>3</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>3</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>3</v>
+      </c>
+      <c r="B28" s="9">
+        <v>7</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>3</v>
+      </c>
+      <c r="B29" s="9">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30" s="9">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>4</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>4</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>4</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>4</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>4</v>
+      </c>
+      <c r="B36" s="9">
+        <v>5</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>4</v>
+      </c>
+      <c r="B37" s="9">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>4</v>
+      </c>
+      <c r="B38" s="9">
+        <v>7</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>4</v>
+      </c>
+      <c r="B39" s="9">
+        <v>8</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>4</v>
+      </c>
+      <c r="B40" s="9">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>5</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="7">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>5</v>
+      </c>
+      <c r="B44" s="9">
+        <v>3</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>5</v>
+      </c>
+      <c r="B45" s="9">
+        <v>4</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9">
+        <v>5</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>5</v>
+      </c>
+      <c r="B47" s="9">
+        <v>6</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7">
+        <v>5</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>5</v>
+      </c>
+      <c r="B48" s="9">
+        <v>7</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>5</v>
+      </c>
+      <c r="B49" s="9">
+        <v>8</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="7">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>5</v>
+      </c>
+      <c r="B50" s="9">
+        <v>9</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>6</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>6</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>6</v>
+      </c>
+      <c r="B54" s="9">
+        <v>3</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>6</v>
+      </c>
+      <c r="B55" s="9">
+        <v>4</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>6</v>
+      </c>
+      <c r="B56" s="9">
+        <v>5</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>6</v>
+      </c>
+      <c r="B57" s="9">
+        <v>6</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="7">
+        <v>4</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>6</v>
+      </c>
+      <c r="B58" s="9">
+        <v>7</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>6</v>
+      </c>
+      <c r="B59" s="9">
+        <v>8</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>6</v>
+      </c>
+      <c r="B60" s="9">
+        <v>9</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>7</v>
+      </c>
+      <c r="B62" s="9">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>7</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>7</v>
+      </c>
+      <c r="B64" s="9">
+        <v>3</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="7">
+        <v>6</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>7</v>
+      </c>
+      <c r="B65" s="9">
+        <v>4</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>7</v>
+      </c>
+      <c r="B66" s="9">
+        <v>5</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>7</v>
+      </c>
+      <c r="B67" s="9">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>7</v>
+      </c>
+      <c r="B68" s="9">
+        <v>7</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>7</v>
+      </c>
+      <c r="B69" s="9">
+        <v>8</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>7</v>
+      </c>
+      <c r="B70" s="9">
+        <v>9</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>8</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>8</v>
+      </c>
+      <c r="B73" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>8</v>
+      </c>
+      <c r="B74" s="9">
+        <v>3</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="7">
+        <v>6</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>8</v>
+      </c>
+      <c r="B75" s="9">
+        <v>4</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>8</v>
+      </c>
+      <c r="B76" s="9">
+        <v>5</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="7">
+        <v>4</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>8</v>
+      </c>
+      <c r="B77" s="9">
+        <v>6</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>8</v>
+      </c>
+      <c r="B78" s="9">
+        <v>7</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="7">
+        <v>2</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>8</v>
+      </c>
+      <c r="B79" s="9">
+        <v>8</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>8</v>
+      </c>
+      <c r="B80" s="9">
+        <v>9</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>9</v>
+      </c>
+      <c r="B82" s="9">
+        <v>1</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>9</v>
+      </c>
+      <c r="B83" s="9">
+        <v>2</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="7">
+        <v>4</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>9</v>
+      </c>
+      <c r="B84" s="9">
+        <v>3</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>9</v>
+      </c>
+      <c r="B85" s="9">
+        <v>4</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>9</v>
+      </c>
+      <c r="B86" s="9">
+        <v>5</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>9</v>
+      </c>
+      <c r="B87" s="9">
+        <v>6</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>9</v>
+      </c>
+      <c r="B88" s="9">
+        <v>7</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="7">
+        <v>6</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>9</v>
+      </c>
+      <c r="B89" s="9">
+        <v>8</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="7">
+        <v>2</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>9</v>
+      </c>
+      <c r="B90" s="9">
+        <v>9</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>10</v>
+      </c>
+      <c r="B92" s="9">
+        <v>1</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="7">
+        <v>5</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>10</v>
+      </c>
+      <c r="B93" s="9">
+        <v>2</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>10</v>
+      </c>
+      <c r="B94" s="9">
+        <v>3</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>10</v>
+      </c>
+      <c r="B95" s="9">
+        <v>4</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>10</v>
+      </c>
+      <c r="B96" s="9">
+        <v>5</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>10</v>
+      </c>
+      <c r="B97" s="9">
+        <v>6</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="7">
+        <v>2</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>10</v>
+      </c>
+      <c r="B98" s="9">
+        <v>7</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>10</v>
+      </c>
+      <c r="B99" s="9">
+        <v>8</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>10</v>
+      </c>
+      <c r="B100" s="9">
+        <v>9</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>11</v>
+      </c>
+      <c r="B102" s="9">
+        <v>1</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="7">
+        <v>1</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>11</v>
+      </c>
+      <c r="B103" s="9">
+        <v>2</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>11</v>
+      </c>
+      <c r="B104" s="9">
+        <v>3</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="7">
+        <v>2</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>11</v>
+      </c>
+      <c r="B105" s="9">
+        <v>4</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>11</v>
+      </c>
+      <c r="B106" s="9">
+        <v>5</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>11</v>
+      </c>
+      <c r="B107" s="9">
+        <v>6</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="7">
+        <v>6</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>11</v>
+      </c>
+      <c r="B108" s="9">
+        <v>7</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="7">
+        <v>4</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>11</v>
+      </c>
+      <c r="B109" s="9">
+        <v>8</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="7">
+        <v>4</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>11</v>
+      </c>
+      <c r="B110" s="9">
+        <v>9</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="7">
+        <v>2</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>12</v>
+      </c>
+      <c r="B112" s="9">
+        <v>1</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>12</v>
+      </c>
+      <c r="B113" s="9">
+        <v>2</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>12</v>
+      </c>
+      <c r="B114" s="9">
+        <v>3</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>12</v>
+      </c>
+      <c r="B115" s="9">
+        <v>4</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="7">
+        <v>3</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>12</v>
+      </c>
+      <c r="B116" s="9">
+        <v>5</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>12</v>
+      </c>
+      <c r="B117" s="9">
+        <v>6</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="7">
+        <v>1</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>12</v>
+      </c>
+      <c r="B118" s="9">
+        <v>7</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
+        <v>12</v>
+      </c>
+      <c r="B119" s="9">
+        <v>8</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="7">
+        <v>2</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>12</v>
+      </c>
+      <c r="B120" s="9">
+        <v>9</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="7">
+        <v>5</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
+        <v>13</v>
+      </c>
+      <c r="B122" s="9">
+        <v>1</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
+        <v>13</v>
+      </c>
+      <c r="B123" s="9">
+        <v>2</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
+        <v>13</v>
+      </c>
+      <c r="B124" s="9">
+        <v>3</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="7">
+        <v>2</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
+        <v>13</v>
+      </c>
+      <c r="B125" s="9">
+        <v>4</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="7">
+        <v>1</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
+        <v>13</v>
+      </c>
+      <c r="B126" s="9">
+        <v>5</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="7">
+        <v>3</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
+        <v>13</v>
+      </c>
+      <c r="B127" s="9">
+        <v>6</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="7">
+        <v>3</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
+        <v>13</v>
+      </c>
+      <c r="B128" s="9">
+        <v>7</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="7">
+        <v>5</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
+        <v>13</v>
+      </c>
+      <c r="B129" s="9">
+        <v>8</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="7">
+        <v>0</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
+        <v>13</v>
+      </c>
+      <c r="B130" s="9">
+        <v>9</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="7">
+        <v>3</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
+        <v>14</v>
+      </c>
+      <c r="B132" s="9">
+        <v>1</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="7">
+        <v>0</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
+        <v>14</v>
+      </c>
+      <c r="B133" s="9">
+        <v>2</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>14</v>
+      </c>
+      <c r="B134" s="9">
+        <v>3</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="7">
+        <v>2</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
+        <v>14</v>
+      </c>
+      <c r="B135" s="9">
+        <v>4</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="7">
+        <v>3</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
+        <v>14</v>
+      </c>
+      <c r="B136" s="9">
+        <v>5</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="7">
+        <v>1</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
+        <v>14</v>
+      </c>
+      <c r="B137" s="9">
+        <v>6</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="9">
+        <v>14</v>
+      </c>
+      <c r="B138" s="9">
+        <v>7</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="7">
+        <v>1</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
+        <v>14</v>
+      </c>
+      <c r="B139" s="9">
+        <v>8</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="7">
+        <v>3</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
+        <v>14</v>
+      </c>
+      <c r="B140" s="9">
+        <v>9</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="7">
+        <v>4</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
+        <v>15</v>
+      </c>
+      <c r="B142" s="9">
+        <v>1</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="7">
+        <v>3</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
+        <v>15</v>
+      </c>
+      <c r="B143" s="9">
+        <v>2</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="7">
+        <v>4</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
+        <v>15</v>
+      </c>
+      <c r="B144" s="9">
+        <v>3</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="7">
+        <v>0</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="9">
+        <v>15</v>
+      </c>
+      <c r="B145" s="9">
+        <v>4</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="7">
+        <v>2</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
+        <v>15</v>
+      </c>
+      <c r="B146" s="9">
+        <v>5</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="7">
+        <v>0</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="9">
+        <v>15</v>
+      </c>
+      <c r="B147" s="9">
+        <v>6</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="7">
+        <v>1</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="9">
+        <v>15</v>
+      </c>
+      <c r="B148" s="9">
+        <v>7</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="7">
+        <v>0</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
+        <v>15</v>
+      </c>
+      <c r="B149" s="9">
+        <v>8</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="7">
+        <v>6</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="9">
+        <v>15</v>
+      </c>
+      <c r="B150" s="9">
+        <v>9</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="7">
+        <v>0</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
+        <v>16</v>
+      </c>
+      <c r="B152" s="9">
+        <v>1</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="7">
+        <v>0</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="9">
+        <v>16</v>
+      </c>
+      <c r="B153" s="9">
+        <v>2</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="7">
+        <v>3</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="9">
+        <v>16</v>
+      </c>
+      <c r="B154" s="9">
+        <v>3</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="7">
+        <v>2</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="9">
+        <v>16</v>
+      </c>
+      <c r="B155" s="9">
+        <v>4</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="7">
+        <v>1</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="9">
+        <v>16</v>
+      </c>
+      <c r="B156" s="9">
+        <v>5</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="9">
+        <v>16</v>
+      </c>
+      <c r="B157" s="9">
+        <v>6</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="9">
+        <v>16</v>
+      </c>
+      <c r="B158" s="9">
+        <v>7</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="7">
+        <v>0</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="9">
+        <v>16</v>
+      </c>
+      <c r="B159" s="9">
+        <v>8</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
+        <v>16</v>
+      </c>
+      <c r="B160" s="9">
+        <v>9</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
+        <v>17</v>
+      </c>
+      <c r="B162" s="9">
+        <v>1</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="7">
+        <v>2</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
+        <v>17</v>
+      </c>
+      <c r="B163" s="9">
+        <v>2</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
+        <v>17</v>
+      </c>
+      <c r="B164" s="9">
+        <v>3</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="7">
+        <v>0</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
+        <v>17</v>
+      </c>
+      <c r="B165" s="9">
+        <v>4</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="7">
+        <v>0</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
+        <v>17</v>
+      </c>
+      <c r="B166" s="9">
+        <v>5</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="7">
+        <v>0</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
+        <v>17</v>
+      </c>
+      <c r="B167" s="9">
+        <v>6</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="7">
+        <v>3</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F167" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
+        <v>17</v>
+      </c>
+      <c r="B168" s="9">
+        <v>7</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="7">
+        <v>1</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
+        <v>17</v>
+      </c>
+      <c r="B169" s="9">
+        <v>8</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="7">
+        <v>3</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="9">
+        <v>17</v>
+      </c>
+      <c r="B170" s="9">
+        <v>9</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="7">
+        <v>0</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="9">
+        <v>18</v>
+      </c>
+      <c r="B172" s="9">
+        <v>1</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="7">
+        <v>0</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="9">
+        <v>18</v>
+      </c>
+      <c r="B173" s="9">
+        <v>2</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="7">
+        <v>0</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="9">
+        <v>18</v>
+      </c>
+      <c r="B174" s="9">
+        <v>3</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="7">
+        <v>1</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="9">
+        <v>18</v>
+      </c>
+      <c r="B175" s="9">
+        <v>4</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="7">
+        <v>2</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="9">
+        <v>18</v>
+      </c>
+      <c r="B176" s="9">
+        <v>5</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="7">
+        <v>3</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
+        <v>18</v>
+      </c>
+      <c r="B177" s="9">
+        <v>6</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="7">
+        <v>0</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="9">
+        <v>18</v>
+      </c>
+      <c r="B178" s="9">
+        <v>7</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="7">
+        <v>0</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F178" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="9">
+        <v>18</v>
+      </c>
+      <c r="B179" s="9">
+        <v>8</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="7">
+        <v>0</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="9">
+        <v>18</v>
+      </c>
+      <c r="B180" s="9">
+        <v>9</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" s="7">
+        <v>0</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="9">
+        <v>19</v>
+      </c>
+      <c r="B182" s="9">
+        <v>1</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="7">
+        <v>0</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="9">
+        <v>19</v>
+      </c>
+      <c r="B183" s="9">
+        <v>2</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="7">
+        <v>1</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="9">
+        <v>19</v>
+      </c>
+      <c r="B184" s="9">
+        <v>3</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="7">
+        <v>0</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="9">
+        <v>19</v>
+      </c>
+      <c r="B185" s="9">
+        <v>4</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="7">
+        <v>3</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="9">
+        <v>19</v>
+      </c>
+      <c r="B186" s="9">
+        <v>5</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="7">
+        <v>0</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="9">
+        <v>19</v>
+      </c>
+      <c r="B187" s="9">
+        <v>6</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="7">
+        <v>0</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="9">
+        <v>19</v>
+      </c>
+      <c r="B188" s="9">
+        <v>7</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="7">
+        <v>4</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="9">
+        <v>19</v>
+      </c>
+      <c r="B189" s="9">
+        <v>8</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="7">
+        <v>0</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="9">
+        <v>19</v>
+      </c>
+      <c r="B190" s="9">
+        <v>9</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="7">
+        <v>2</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="9">
+        <v>20</v>
+      </c>
+      <c r="B192" s="9">
+        <v>1</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="7">
+        <v>1</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="9">
+        <v>20</v>
+      </c>
+      <c r="B193" s="9">
+        <v>2</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="7">
+        <v>3</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="9">
+        <v>20</v>
+      </c>
+      <c r="B194" s="9">
+        <v>3</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="7">
+        <v>0</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="9">
+        <v>20</v>
+      </c>
+      <c r="B195" s="9">
+        <v>4</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="7">
+        <v>2</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="9">
+        <v>20</v>
+      </c>
+      <c r="B196" s="9">
+        <v>5</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="7">
+        <v>3</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="9">
+        <v>20</v>
+      </c>
+      <c r="B197" s="9">
+        <v>6</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="7">
+        <v>2</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="9">
+        <v>20</v>
+      </c>
+      <c r="B198" s="9">
+        <v>7</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="7">
+        <v>2</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="9">
+        <v>20</v>
+      </c>
+      <c r="B199" s="9">
+        <v>8</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="7">
+        <v>4</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="9">
+        <v>20</v>
+      </c>
+      <c r="B200" s="9">
+        <v>9</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="7">
+        <v>0</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="9">
+        <v>21</v>
+      </c>
+      <c r="B202" s="9">
+        <v>1</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="7">
+        <v>1</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="9">
+        <v>21</v>
+      </c>
+      <c r="B203" s="9">
+        <v>2</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="7">
+        <v>5</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="9">
+        <v>21</v>
+      </c>
+      <c r="B204" s="9">
+        <v>3</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="7">
+        <v>0</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="9">
+        <v>21</v>
+      </c>
+      <c r="B205" s="9">
+        <v>4</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="7">
+        <v>0</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="9">
+        <v>21</v>
+      </c>
+      <c r="B206" s="9">
+        <v>5</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="7">
+        <v>0</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="9">
+        <v>21</v>
+      </c>
+      <c r="B207" s="9">
+        <v>6</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="7">
+        <v>0</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F207" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="9">
+        <v>21</v>
+      </c>
+      <c r="B208" s="9">
+        <v>7</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" s="7">
+        <v>3</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="9">
+        <v>21</v>
+      </c>
+      <c r="B209" s="9">
+        <v>8</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="7">
+        <v>0</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F209" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="9">
+        <v>21</v>
+      </c>
+      <c r="B210" s="9">
+        <v>9</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="7">
+        <v>1</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="9">
+        <v>22</v>
+      </c>
+      <c r="B212" s="9">
+        <v>1</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="7">
+        <v>3</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="9">
+        <v>22</v>
+      </c>
+      <c r="B213" s="9">
+        <v>2</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="7">
+        <v>0</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="9">
+        <v>22</v>
+      </c>
+      <c r="B214" s="9">
+        <v>3</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="7">
+        <v>3</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="9">
+        <v>22</v>
+      </c>
+      <c r="B215" s="9">
+        <v>4</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="7">
+        <v>1</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="9">
+        <v>22</v>
+      </c>
+      <c r="B216" s="9">
+        <v>5</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="7">
+        <v>6</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="9">
+        <v>22</v>
+      </c>
+      <c r="B217" s="9">
+        <v>6</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="7">
+        <v>5</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="9">
+        <v>22</v>
+      </c>
+      <c r="B218" s="9">
+        <v>7</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" s="7">
+        <v>5</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F218" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="9">
+        <v>22</v>
+      </c>
+      <c r="B219" s="9">
+        <v>8</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="7">
+        <v>2</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="9">
+        <v>22</v>
+      </c>
+      <c r="B220" s="9">
+        <v>9</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="7">
+        <v>4</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="9">
+        <v>23</v>
+      </c>
+      <c r="B222" s="9">
+        <v>1</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="7">
+        <v>0</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="9">
+        <v>23</v>
+      </c>
+      <c r="B223" s="9">
+        <v>2</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="7">
+        <v>1</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="9">
+        <v>23</v>
+      </c>
+      <c r="B224" s="9">
+        <v>3</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" s="7">
+        <v>0</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="9">
+        <v>23</v>
+      </c>
+      <c r="B225" s="9">
+        <v>4</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" s="7">
+        <v>1</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="9">
+        <v>23</v>
+      </c>
+      <c r="B226" s="9">
+        <v>5</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="7">
+        <v>1</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="9">
+        <v>23</v>
+      </c>
+      <c r="B227" s="9">
+        <v>6</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" s="7">
+        <v>2</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="9">
+        <v>23</v>
+      </c>
+      <c r="B228" s="9">
+        <v>7</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="7">
+        <v>2</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F228" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="9">
+        <v>23</v>
+      </c>
+      <c r="B229" s="9">
+        <v>8</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="7">
+        <v>1</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="9">
+        <v>23</v>
+      </c>
+      <c r="B230" s="9">
+        <v>9</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="7">
+        <v>1</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="9">
+        <v>24</v>
+      </c>
+      <c r="B232" s="9">
+        <v>1</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="7">
+        <v>1</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="9">
+        <v>24</v>
+      </c>
+      <c r="B233" s="9">
+        <v>2</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="7">
+        <v>0</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="9">
+        <v>24</v>
+      </c>
+      <c r="B234" s="9">
+        <v>3</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" s="7">
+        <v>5</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="9">
+        <v>24</v>
+      </c>
+      <c r="B235" s="9">
+        <v>4</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="7">
+        <v>0</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="9">
+        <v>24</v>
+      </c>
+      <c r="B236" s="9">
+        <v>5</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="7">
+        <v>3</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="9">
+        <v>24</v>
+      </c>
+      <c r="B237" s="9">
+        <v>6</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" s="7">
+        <v>3</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F237" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="9">
+        <v>24</v>
+      </c>
+      <c r="B238" s="9">
+        <v>7</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="7">
+        <v>2</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="9">
+        <v>24</v>
+      </c>
+      <c r="B239" s="9">
+        <v>8</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" s="7">
+        <v>0</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F239" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="9">
+        <v>24</v>
+      </c>
+      <c r="B240" s="9">
+        <v>9</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" s="7">
+        <v>2</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="9">
+        <v>25</v>
+      </c>
+      <c r="B242" s="9">
+        <v>1</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="7">
+        <v>1</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="9">
+        <v>25</v>
+      </c>
+      <c r="B243" s="9">
+        <v>2</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D243" s="7">
+        <v>0</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="9">
+        <v>25</v>
+      </c>
+      <c r="B244" s="9">
+        <v>3</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" s="7">
+        <v>1</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="9">
+        <v>25</v>
+      </c>
+      <c r="B245" s="9">
+        <v>4</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245" s="7">
+        <v>3</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="9">
+        <v>25</v>
+      </c>
+      <c r="B246" s="9">
+        <v>5</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" s="7">
+        <v>3</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="9">
+        <v>25</v>
+      </c>
+      <c r="B247" s="9">
+        <v>6</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="7">
+        <v>0</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F247" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="9">
+        <v>25</v>
+      </c>
+      <c r="B248" s="9">
+        <v>7</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248" s="7">
+        <v>3</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="9">
+        <v>25</v>
+      </c>
+      <c r="B249" s="9">
+        <v>8</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" s="7">
+        <v>0</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="9">
+        <v>25</v>
+      </c>
+      <c r="B250" s="9">
+        <v>9</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="7">
+        <v>2</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="9">
+        <v>26</v>
+      </c>
+      <c r="B252" s="9">
+        <v>1</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="7">
+        <v>1</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="9">
+        <v>26</v>
+      </c>
+      <c r="B253" s="9">
+        <v>2</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" s="7">
+        <v>0</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="9">
+        <v>26</v>
+      </c>
+      <c r="B254" s="9">
+        <v>3</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254" s="7">
+        <v>0</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="9">
+        <v>26</v>
+      </c>
+      <c r="B255" s="9">
+        <v>4</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" s="7">
+        <v>2</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="9">
+        <v>26</v>
+      </c>
+      <c r="B256" s="9">
+        <v>5</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" s="7">
+        <v>5</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="9">
+        <v>26</v>
+      </c>
+      <c r="B257" s="9">
+        <v>6</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="7">
+        <v>0</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="9">
+        <v>26</v>
+      </c>
+      <c r="B258" s="9">
+        <v>7</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258" s="7">
+        <v>2</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F258" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="9">
+        <v>26</v>
+      </c>
+      <c r="B259" s="9">
+        <v>8</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="7">
+        <v>1</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="9">
+        <v>26</v>
+      </c>
+      <c r="B260" s="9">
+        <v>9</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" s="7">
+        <v>0</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F260" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="9">
+        <v>27</v>
+      </c>
+      <c r="B262" s="9">
+        <v>1</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="7">
+        <v>4</v>
+      </c>
+      <c r="E262" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="9">
+        <v>27</v>
+      </c>
+      <c r="B263" s="9">
+        <v>2</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="7">
+        <v>0</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="9">
+        <v>27</v>
+      </c>
+      <c r="B264" s="9">
+        <v>3</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" s="7">
+        <v>0</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="9">
+        <v>27</v>
+      </c>
+      <c r="B265" s="9">
+        <v>4</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265" s="7">
+        <v>0</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="9">
+        <v>27</v>
+      </c>
+      <c r="B266" s="9">
+        <v>5</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" s="7">
+        <v>3</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="9">
+        <v>27</v>
+      </c>
+      <c r="B267" s="9">
+        <v>6</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D267" s="7">
+        <v>0</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="9">
+        <v>27</v>
+      </c>
+      <c r="B268" s="9">
+        <v>7</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" s="7">
+        <v>0</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="9">
+        <v>27</v>
+      </c>
+      <c r="B269" s="9">
+        <v>8</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269" s="7">
+        <v>1</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="9">
+        <v>27</v>
+      </c>
+      <c r="B270" s="9">
+        <v>9</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="7">
+        <v>0</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F270" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="9">
+        <v>28</v>
+      </c>
+      <c r="B272" s="9">
+        <v>1</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272" s="7">
+        <v>1</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F272" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="9">
+        <v>28</v>
+      </c>
+      <c r="B273" s="9">
+        <v>2</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D273" s="7">
+        <v>6</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="9">
+        <v>28</v>
+      </c>
+      <c r="B274" s="9">
+        <v>3</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" s="7">
+        <v>0</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="9">
+        <v>28</v>
+      </c>
+      <c r="B275" s="9">
+        <v>4</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" s="7">
+        <v>3</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F275" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="9">
+        <v>28</v>
+      </c>
+      <c r="B276" s="9">
+        <v>5</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="7">
+        <v>1</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="9">
+        <v>28</v>
+      </c>
+      <c r="B277" s="9">
+        <v>6</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277" s="7">
+        <v>4</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="9">
+        <v>28</v>
+      </c>
+      <c r="B278" s="9">
+        <v>7</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" s="7">
+        <v>0</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="9">
+        <v>28</v>
+      </c>
+      <c r="B279" s="9">
+        <v>8</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" s="7">
+        <v>2</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="9">
+        <v>28</v>
+      </c>
+      <c r="B280" s="9">
+        <v>9</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" s="7">
+        <v>2</v>
+      </c>
+      <c r="E280" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F280" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="9">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B282" s="9">
+        <v>1</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" s="7">
+        <v>0</v>
+      </c>
+      <c r="E282" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F282" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="9">
+        <v>29</v>
+      </c>
+      <c r="B283" s="9">
+        <v>2</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" s="7">
+        <v>1</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F283" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="9">
+        <v>29</v>
+      </c>
+      <c r="B284" s="9">
+        <v>3</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D284" s="7">
+        <v>6</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="9">
+        <v>29</v>
+      </c>
+      <c r="B285" s="9">
+        <v>4</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" s="7">
+        <v>1</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="9">
+        <v>29</v>
+      </c>
+      <c r="B286" s="9">
+        <v>5</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D286" s="7">
+        <v>5</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="9">
+        <v>29</v>
+      </c>
+      <c r="B287" s="9">
+        <v>6</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" s="7">
+        <v>2</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="9">
+        <v>29</v>
+      </c>
+      <c r="B288" s="9">
+        <v>7</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="7">
+        <v>2</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="9">
+        <v>29</v>
+      </c>
+      <c r="B289" s="9">
+        <v>8</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" s="7">
+        <v>1</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="9">
+        <v>29</v>
+      </c>
+      <c r="B290" s="9">
+        <v>9</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="7">
+        <v>0</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="9">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
+      <c r="B292" s="9">
+        <v>1</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D292" s="7">
+        <v>2</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="9">
+        <v>30</v>
+      </c>
+      <c r="B293" s="9">
+        <v>2</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" s="7">
+        <v>2</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="9">
+        <v>30</v>
+      </c>
+      <c r="B294" s="9">
+        <v>3</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294" s="7">
+        <v>0</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="9">
+        <v>30</v>
+      </c>
+      <c r="B295" s="9">
+        <v>4</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295" s="7">
+        <v>1</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="9">
+        <v>30</v>
+      </c>
+      <c r="B296" s="9">
+        <v>5</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D296" s="7">
+        <v>2</v>
+      </c>
+      <c r="E296" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="9">
+        <v>30</v>
+      </c>
+      <c r="B297" s="9">
+        <v>6</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D297" s="7">
+        <v>3</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="9">
+        <v>30</v>
+      </c>
+      <c r="B298" s="9">
+        <v>7</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="7">
+        <v>1</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="9">
+        <v>30</v>
+      </c>
+      <c r="B299" s="9">
+        <v>8</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" s="7">
+        <v>0</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="9">
+        <v>30</v>
+      </c>
+      <c r="B300" s="9">
+        <v>9</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="7">
+        <v>0</v>
+      </c>
+      <c r="E300" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F300" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="9">
+        <v>31</v>
+      </c>
+      <c r="B302" s="9">
+        <v>1</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D302" s="7">
+        <v>4</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F302" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="9">
+        <v>31</v>
+      </c>
+      <c r="B303" s="9">
+        <v>2</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" s="7">
+        <v>1</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F303" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="9">
+        <v>31</v>
+      </c>
+      <c r="B304" s="9">
+        <v>3</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="7">
+        <v>1</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F304" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="9">
+        <v>31</v>
+      </c>
+      <c r="B305" s="9">
+        <v>4</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D305" s="7">
+        <v>5</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="9">
+        <v>31</v>
+      </c>
+      <c r="B306" s="9">
+        <v>5</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D306" s="7">
+        <v>0</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="9">
+        <v>31</v>
+      </c>
+      <c r="B307" s="9">
+        <v>6</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="7">
+        <v>1</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="9">
+        <v>31</v>
+      </c>
+      <c r="B308" s="9">
+        <v>7</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" s="7">
+        <v>1</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="9">
+        <v>31</v>
+      </c>
+      <c r="B309" s="9">
+        <v>8</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="7">
+        <v>2</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="9">
+        <v>31</v>
+      </c>
+      <c r="B310" s="9">
+        <v>9</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D310" s="7">
+        <v>0</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F310" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="9">
+        <v>32</v>
+      </c>
+      <c r="B312" s="9">
+        <v>1</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D312" s="7">
+        <v>0</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F312" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="9">
+        <v>32</v>
+      </c>
+      <c r="B313" s="9">
+        <v>2</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" s="7">
+        <v>2</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F313" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="9">
+        <v>32</v>
+      </c>
+      <c r="B314" s="9">
+        <v>3</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="7">
+        <v>3</v>
+      </c>
+      <c r="E314" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F314" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="9">
+        <v>32</v>
+      </c>
+      <c r="B315" s="9">
+        <v>4</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315" s="7">
+        <v>5</v>
+      </c>
+      <c r="E315" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="9">
+        <v>32</v>
+      </c>
+      <c r="B316" s="9">
+        <v>5</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" s="7">
+        <v>0</v>
+      </c>
+      <c r="E316" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F316" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="9">
+        <v>32</v>
+      </c>
+      <c r="B317" s="9">
+        <v>6</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" s="7">
+        <v>1</v>
+      </c>
+      <c r="E317" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="9">
+        <v>32</v>
+      </c>
+      <c r="B318" s="9">
+        <v>7</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" s="7">
+        <v>1</v>
+      </c>
+      <c r="E318" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="9">
+        <v>32</v>
+      </c>
+      <c r="B319" s="9">
+        <v>8</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="7">
+        <v>0</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="9">
+        <v>32</v>
+      </c>
+      <c r="B320" s="9">
+        <v>9</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="7">
+        <v>1</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F320" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="9">
+        <v>33</v>
+      </c>
+      <c r="B322" s="9">
+        <v>1</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322" s="7">
+        <v>0</v>
+      </c>
+      <c r="E322" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F322" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="9">
+        <v>33</v>
+      </c>
+      <c r="B323" s="9">
+        <v>2</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" s="7">
+        <v>1</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F323" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="9">
+        <v>33</v>
+      </c>
+      <c r="B324" s="9">
+        <v>3</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D324" s="7">
+        <v>2</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F324" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="9">
+        <v>33</v>
+      </c>
+      <c r="B325" s="9">
+        <v>4</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" s="7">
+        <v>4</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F325" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="9">
+        <v>33</v>
+      </c>
+      <c r="B326" s="9">
+        <v>5</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326" s="7">
+        <v>1</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="9">
+        <v>33</v>
+      </c>
+      <c r="B327" s="9">
+        <v>6</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" s="7">
+        <v>2</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F327" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="9">
+        <v>33</v>
+      </c>
+      <c r="B328" s="9">
+        <v>7</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="7">
+        <v>3</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="9">
+        <v>33</v>
+      </c>
+      <c r="B329" s="9">
+        <v>8</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="7">
+        <v>4</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="9">
+        <v>33</v>
+      </c>
+      <c r="B330" s="9">
+        <v>9</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330" s="7">
+        <v>2</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F330" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="9">
+        <v>34</v>
+      </c>
+      <c r="B332" s="9">
+        <v>1</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332" s="7">
+        <v>1</v>
+      </c>
+      <c r="E332" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F332" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="9">
+        <v>34</v>
+      </c>
+      <c r="B333" s="9">
+        <v>2</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" s="7">
+        <v>1</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F333" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="9">
+        <v>34</v>
+      </c>
+      <c r="B334" s="9">
+        <v>3</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D334" s="7">
+        <v>0</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F334" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="9">
+        <v>34</v>
+      </c>
+      <c r="B335" s="9">
+        <v>4</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D335" s="7">
+        <v>1</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="9">
+        <v>34</v>
+      </c>
+      <c r="B336" s="9">
+        <v>5</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D336" s="7">
+        <v>0</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F336" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="9">
+        <v>34</v>
+      </c>
+      <c r="B337" s="9">
+        <v>6</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" s="7">
+        <v>1</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F337" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="9">
+        <v>34</v>
+      </c>
+      <c r="B338" s="9">
+        <v>7</v>
+      </c>
+      <c r="C338" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="7">
+        <v>3</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F338" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="9">
+        <v>34</v>
+      </c>
+      <c r="B339" s="9">
+        <v>8</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="7">
+        <v>0</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="9">
+        <v>34</v>
+      </c>
+      <c r="B340" s="9">
+        <v>9</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="7">
+        <v>4</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F340" s="7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -963,6 +7051,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010062CAE64AA7F69C46B54A678A6BE0A651" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af5f6e00b9f0571a5f9ee831358125ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c2272e96bf67ea3414f68801711290">
     <xsd:element name="properties">
@@ -1076,22 +7173,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72305C2-23EF-4187-B10B-4BEF1AE453A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F490B140-0BE5-4703-B822-792654CBA302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1107,7 +7203,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21FF3668-C3F7-433B-9048-013C2A79257C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1120,12 +7216,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72305C2-23EF-4187-B10B-4BEF1AE453A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/HA2_Liste/Excel_Tabellen/Teams.xlsx
+++ b/HA2_Liste/Excel_Tabellen/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\OneDrive\Documents\GitHub\Hausaufgabe2\HA2_Liste\Excel_Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E463FB6F-1D52-4C91-85C4-A21AAEF11656}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{08D3CBFD-646A-4266-B60D-B1C9D1AD8F29}"/>
   <bookViews>
     <workbookView xWindow="14070" yWindow="2055" windowWidth="11925" windowHeight="11385" activeTab="2" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Teamname</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>Tordifferenz</t>
+  </si>
+  <si>
+    <t>Spieltag</t>
+  </si>
+  <si>
+    <t>Spiel Nr.</t>
+  </si>
+  <si>
+    <t>Heimteam</t>
+  </si>
+  <si>
+    <t>Gastteam</t>
+  </si>
+  <si>
+    <t>Heim Tore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gast Tore</t>
   </si>
 </sst>
 </file>
@@ -132,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +169,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,11 +184,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -186,6 +225,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -503,7 +554,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,102 +563,156 @@
     <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -619,7 +724,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,32 +735,32 @@
     <col min="6" max="9" width="11.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -871,7 +976,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,13 +989,25 @@
     <col min="6" max="6" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="7"/>
+    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>

--- a/HA2_Liste/Excel_Tabellen/Teams.xlsx
+++ b/HA2_Liste/Excel_Tabellen/Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\OneDrive\Documents\GitHub\Hausaufgabe2\HA2_Liste\Excel_Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{08D3CBFD-646A-4266-B60D-B1C9D1AD8F29}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E68A81F2-C091-4B28-9BE8-BB1B395B8A63}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="2055" windowWidth="11925" windowHeight="11385" activeTab="2" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaften" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="35">
   <si>
     <t>Teamname</t>
   </si>
@@ -128,13 +128,16 @@
     <t>Heimteam</t>
   </si>
   <si>
+    <t>Heim Tore</t>
+  </si>
+  <si>
     <t>Gastteam</t>
   </si>
   <si>
-    <t>Heim Tore</t>
+    <t xml:space="preserve"> Gast Tore</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gast Tore</t>
+    <t>Teamnr.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -553,166 +558,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98CDC2F-04B0-4000-9CD2-E547899965E2}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -724,247 +732,597 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="C2" s="10">
-        <f t="shared" ref="C2:C19" si="0">D2*3+E2*1</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I19" si="1">G2-H2</f>
-        <v>0</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12">
+        <v>61</v>
+      </c>
+      <c r="D2" s="7">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7">
+        <v>77</v>
+      </c>
+      <c r="H2" s="7">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7">
+        <f>G2-H2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="C3" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>64</v>
+      </c>
+      <c r="H3" s="7">
+        <v>56</v>
+      </c>
+      <c r="I3" s="7">
+        <f>G3-H3</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="C4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7">
+        <v>57</v>
+      </c>
+      <c r="H4" s="7">
+        <v>41</v>
+      </c>
+      <c r="I4" s="7">
+        <f>G4-H4</f>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7">
+        <v>71</v>
+      </c>
+      <c r="H5" s="7">
+        <v>50</v>
+      </c>
+      <c r="I5" s="7">
+        <f>G5-H5</f>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="C6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7">
+        <v>56</v>
+      </c>
+      <c r="H6" s="7">
+        <v>64</v>
+      </c>
+      <c r="I6" s="7">
+        <f>G6-H6</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7">
+        <v>67</v>
+      </c>
+      <c r="H7" s="7">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7">
+        <f>G7-H7</f>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="C8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>34</v>
+      </c>
+      <c r="C8" s="12">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7">
+        <v>37</v>
+      </c>
+      <c r="I8" s="7">
+        <f>G8-H8</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="C9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7">
+        <f>G9-H9</f>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="C10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>34</v>
+      </c>
+      <c r="C10" s="12">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7">
+        <v>71</v>
+      </c>
+      <c r="I10" s="7">
+        <f>G10-H10</f>
+        <v>-21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>34</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7">
+        <v>41</v>
+      </c>
+      <c r="H11" s="7">
+        <v>57</v>
+      </c>
+      <c r="I11" s="7">
+        <f>G11-H11</f>
+        <v>-16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="C12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>34</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7">
+        <v>42</v>
+      </c>
+      <c r="H12" s="7">
+        <v>57</v>
+      </c>
+      <c r="I12" s="7">
+        <f>G12-H12</f>
+        <v>-15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="C13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7">
+        <v>67</v>
+      </c>
+      <c r="I13" s="7">
+        <f>G13-H13</f>
+        <v>-31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="C14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7">
+        <v>39</v>
+      </c>
+      <c r="I14" s="7">
+        <f>G14-H14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="C15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7">
+        <v>16</v>
+      </c>
+      <c r="G15" s="7">
+        <v>37</v>
+      </c>
+      <c r="H15" s="7">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7">
+        <f>G15-H15</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="C16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7">
+        <v>46</v>
+      </c>
+      <c r="H16" s="7">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7">
+        <f>G16-H16</f>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="C17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>34</v>
+      </c>
+      <c r="C17" s="12">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7">
+        <v>43</v>
+      </c>
+      <c r="H17" s="7">
+        <v>77</v>
+      </c>
+      <c r="I17" s="7">
+        <f>G17-H17</f>
+        <v>-34</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="C18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>34</v>
+      </c>
+      <c r="C18" s="12">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7">
+        <v>39</v>
+      </c>
+      <c r="H18" s="7">
+        <v>48</v>
+      </c>
+      <c r="I18" s="7">
+        <f>G18-H18</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="C19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>16</v>
+      </c>
+      <c r="G19" s="7">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7">
+        <v>46</v>
+      </c>
+      <c r="I19" s="7">
+        <f>G19-H19</f>
+        <v>-19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C19">
-    <sortCondition descending="1" ref="C1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I19">
+    <sortCondition descending="1" ref="C2:C19"/>
+    <sortCondition descending="1" ref="D2:D19"/>
+    <sortCondition ref="G2:G19"/>
+    <sortCondition ref="E2:E19"/>
+    <sortCondition descending="1" ref="F2:F19"/>
+    <sortCondition descending="1" ref="H2:H19"/>
+    <sortCondition descending="1" ref="I2:I19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -973,101 +1331,6165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E2D04C-2CF0-4355-B854-41A566789419}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>3</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11">
+        <v>6</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>3</v>
+      </c>
+      <c r="B28" s="11">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="9">
+        <v>5</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>3</v>
+      </c>
+      <c r="B29" s="11">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>4</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>4</v>
+      </c>
+      <c r="B35" s="11">
+        <v>4</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="9">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>4</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11">
+        <v>6</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>4</v>
+      </c>
+      <c r="B38" s="11">
+        <v>7</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>4</v>
+      </c>
+      <c r="B39" s="11">
+        <v>8</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>4</v>
+      </c>
+      <c r="B40" s="11">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>5</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>5</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>5</v>
+      </c>
+      <c r="B45" s="11">
+        <v>4</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>5</v>
+      </c>
+      <c r="B46" s="11">
+        <v>5</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>5</v>
+      </c>
+      <c r="B47" s="11">
+        <v>6</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>5</v>
+      </c>
+      <c r="B48" s="11">
+        <v>7</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>5</v>
+      </c>
+      <c r="B49" s="11">
+        <v>8</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="9">
+        <v>3</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>5</v>
+      </c>
+      <c r="B50" s="11">
+        <v>9</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>6</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="9">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>6</v>
+      </c>
+      <c r="B54" s="11">
+        <v>3</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>6</v>
+      </c>
+      <c r="B55" s="11">
+        <v>4</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>6</v>
+      </c>
+      <c r="B56" s="11">
+        <v>5</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>6</v>
+      </c>
+      <c r="B57" s="11">
+        <v>6</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>6</v>
+      </c>
+      <c r="B58" s="11">
+        <v>7</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>6</v>
+      </c>
+      <c r="B59" s="11">
+        <v>8</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="9">
+        <v>2</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>6</v>
+      </c>
+      <c r="B60" s="11">
+        <v>9</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>7</v>
+      </c>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>7</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>7</v>
+      </c>
+      <c r="B64" s="11">
+        <v>3</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>7</v>
+      </c>
+      <c r="B65" s="11">
+        <v>4</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>7</v>
+      </c>
+      <c r="B66" s="11">
+        <v>5</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>7</v>
+      </c>
+      <c r="B67" s="11">
+        <v>6</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>7</v>
+      </c>
+      <c r="B68" s="11">
+        <v>7</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="9">
+        <v>3</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>7</v>
+      </c>
+      <c r="B69" s="11">
+        <v>8</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="9">
+        <v>5</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>7</v>
+      </c>
+      <c r="B70" s="11">
+        <v>9</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>8</v>
+      </c>
+      <c r="B72" s="11">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>8</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="9">
+        <v>5</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>8</v>
+      </c>
+      <c r="B74" s="11">
+        <v>3</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>8</v>
+      </c>
+      <c r="B75" s="11">
+        <v>4</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="9">
+        <v>2</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>8</v>
+      </c>
+      <c r="B76" s="11">
+        <v>5</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="9">
+        <v>2</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>8</v>
+      </c>
+      <c r="B77" s="11">
+        <v>6</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="9">
+        <v>2</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>8</v>
+      </c>
+      <c r="B78" s="11">
+        <v>7</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>8</v>
+      </c>
+      <c r="B79" s="11">
+        <v>8</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="9">
+        <v>1</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>8</v>
+      </c>
+      <c r="B80" s="11">
+        <v>9</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="9">
+        <v>2</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>9</v>
+      </c>
+      <c r="B82" s="11">
+        <v>1</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>9</v>
+      </c>
+      <c r="B83" s="11">
+        <v>2</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="9">
+        <v>1</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>9</v>
+      </c>
+      <c r="B84" s="11">
+        <v>3</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>9</v>
+      </c>
+      <c r="B85" s="11">
+        <v>4</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>9</v>
+      </c>
+      <c r="B86" s="11">
+        <v>5</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>9</v>
+      </c>
+      <c r="B87" s="11">
+        <v>6</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="9">
+        <v>2</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>9</v>
+      </c>
+      <c r="B88" s="11">
+        <v>7</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>9</v>
+      </c>
+      <c r="B89" s="11">
+        <v>8</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>9</v>
+      </c>
+      <c r="B90" s="11">
+        <v>9</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="9">
+        <v>2</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>10</v>
+      </c>
+      <c r="B92" s="11">
+        <v>1</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="9">
+        <v>1</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>10</v>
+      </c>
+      <c r="B93" s="11">
+        <v>2</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>10</v>
+      </c>
+      <c r="B94" s="11">
+        <v>3</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="9">
+        <v>5</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>10</v>
+      </c>
+      <c r="B95" s="11">
+        <v>4</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="9">
+        <v>1</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>10</v>
+      </c>
+      <c r="B96" s="11">
+        <v>5</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>10</v>
+      </c>
+      <c r="B97" s="11">
+        <v>6</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>10</v>
+      </c>
+      <c r="B98" s="11">
+        <v>7</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="9">
+        <v>2</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>10</v>
+      </c>
+      <c r="B99" s="11">
+        <v>8</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="9">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>10</v>
+      </c>
+      <c r="B100" s="11">
+        <v>9</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="9">
+        <v>0</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>11</v>
+      </c>
+      <c r="B102" s="11">
+        <v>1</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="9">
+        <v>3</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>11</v>
+      </c>
+      <c r="B103" s="11">
+        <v>2</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>11</v>
+      </c>
+      <c r="B104" s="11">
+        <v>3</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="9">
+        <v>5</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>11</v>
+      </c>
+      <c r="B105" s="11">
+        <v>4</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>11</v>
+      </c>
+      <c r="B106" s="11">
+        <v>5</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="9">
+        <v>1</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>11</v>
+      </c>
+      <c r="B107" s="11">
+        <v>6</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="9">
+        <v>4</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>11</v>
+      </c>
+      <c r="B108" s="11">
+        <v>7</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>11</v>
+      </c>
+      <c r="B109" s="11">
+        <v>8</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="9">
+        <v>4</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>11</v>
+      </c>
+      <c r="B110" s="11">
+        <v>9</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="9">
+        <v>1</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <v>12</v>
+      </c>
+      <c r="B112" s="11">
+        <v>1</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="9">
+        <v>5</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <v>12</v>
+      </c>
+      <c r="B113" s="11">
+        <v>2</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="9">
+        <v>4</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
+        <v>12</v>
+      </c>
+      <c r="B114" s="11">
+        <v>3</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="9">
+        <v>3</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
+        <v>12</v>
+      </c>
+      <c r="B115" s="11">
+        <v>4</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="9">
+        <v>4</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <v>12</v>
+      </c>
+      <c r="B116" s="11">
+        <v>5</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="9">
+        <v>0</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <v>12</v>
+      </c>
+      <c r="B117" s="11">
+        <v>6</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="9">
+        <v>0</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
+        <v>12</v>
+      </c>
+      <c r="B118" s="11">
+        <v>7</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="9">
+        <v>0</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
+        <v>12</v>
+      </c>
+      <c r="B119" s="11">
+        <v>8</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="9">
+        <v>5</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <v>12</v>
+      </c>
+      <c r="B120" s="11">
+        <v>9</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="9">
+        <v>0</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>13</v>
+      </c>
+      <c r="B122" s="11">
+        <v>1</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>13</v>
+      </c>
+      <c r="B123" s="11">
+        <v>2</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="9">
+        <v>4</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>13</v>
+      </c>
+      <c r="B124" s="11">
+        <v>3</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="9">
+        <v>0</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>13</v>
+      </c>
+      <c r="B125" s="11">
+        <v>4</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="9">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>13</v>
+      </c>
+      <c r="B126" s="11">
+        <v>5</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="9">
+        <v>0</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>13</v>
+      </c>
+      <c r="B127" s="11">
+        <v>6</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="9">
+        <v>0</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>13</v>
+      </c>
+      <c r="B128" s="11">
+        <v>7</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="9">
+        <v>4</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>13</v>
+      </c>
+      <c r="B129" s="11">
+        <v>8</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="9">
+        <v>5</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>13</v>
+      </c>
+      <c r="B130" s="11">
+        <v>9</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="9">
+        <v>2</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <v>14</v>
+      </c>
+      <c r="B132" s="11">
+        <v>1</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="9">
+        <v>1</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <v>14</v>
+      </c>
+      <c r="B133" s="11">
+        <v>2</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="9">
+        <v>4</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <v>14</v>
+      </c>
+      <c r="B134" s="11">
+        <v>3</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="9">
+        <v>4</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <v>14</v>
+      </c>
+      <c r="B135" s="11">
+        <v>4</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="9">
+        <v>0</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <v>14</v>
+      </c>
+      <c r="B136" s="11">
+        <v>5</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="9">
+        <v>0</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <v>14</v>
+      </c>
+      <c r="B137" s="11">
+        <v>6</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="9">
+        <v>1</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
+        <v>14</v>
+      </c>
+      <c r="B138" s="11">
+        <v>7</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="9">
+        <v>0</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <v>14</v>
+      </c>
+      <c r="B139" s="11">
+        <v>8</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="9">
+        <v>0</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <v>14</v>
+      </c>
+      <c r="B140" s="11">
+        <v>9</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="9">
+        <v>2</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <v>15</v>
+      </c>
+      <c r="B142" s="11">
+        <v>1</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="9">
+        <v>1</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <v>15</v>
+      </c>
+      <c r="B143" s="11">
+        <v>2</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="9">
+        <v>0</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="11">
+        <v>15</v>
+      </c>
+      <c r="B144" s="11">
+        <v>3</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="9">
+        <v>1</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <v>15</v>
+      </c>
+      <c r="B145" s="11">
+        <v>4</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="9">
+        <v>3</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <v>15</v>
+      </c>
+      <c r="B146" s="11">
+        <v>5</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="9">
+        <v>0</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F146" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <v>15</v>
+      </c>
+      <c r="B147" s="11">
+        <v>6</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="9">
+        <v>3</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>15</v>
+      </c>
+      <c r="B148" s="11">
+        <v>7</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="9">
+        <v>0</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
+        <v>15</v>
+      </c>
+      <c r="B149" s="11">
+        <v>8</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="9">
+        <v>2</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="11">
+        <v>15</v>
+      </c>
+      <c r="B150" s="11">
+        <v>9</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="9">
+        <v>0</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="11">
+        <v>16</v>
+      </c>
+      <c r="B152" s="11">
+        <v>1</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="9">
+        <v>2</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="11">
+        <v>16</v>
+      </c>
+      <c r="B153" s="11">
+        <v>2</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="9">
+        <v>0</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="11">
+        <v>16</v>
+      </c>
+      <c r="B154" s="11">
+        <v>3</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="9">
+        <v>3</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="11">
+        <v>16</v>
+      </c>
+      <c r="B155" s="11">
+        <v>4</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="9">
+        <v>3</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="11">
+        <v>16</v>
+      </c>
+      <c r="B156" s="11">
+        <v>5</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="9">
+        <v>5</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="11">
+        <v>16</v>
+      </c>
+      <c r="B157" s="11">
+        <v>6</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="9">
+        <v>0</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="11">
+        <v>16</v>
+      </c>
+      <c r="B158" s="11">
+        <v>7</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="9">
+        <v>0</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="11">
+        <v>16</v>
+      </c>
+      <c r="B159" s="11">
+        <v>8</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="9">
+        <v>3</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="11">
+        <v>16</v>
+      </c>
+      <c r="B160" s="11">
+        <v>9</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="9">
+        <v>1</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="11">
+        <v>17</v>
+      </c>
+      <c r="B162" s="11">
+        <v>1</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="9">
+        <v>0</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="11">
+        <v>17</v>
+      </c>
+      <c r="B163" s="11">
+        <v>2</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="9">
+        <v>2</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="11">
+        <v>17</v>
+      </c>
+      <c r="B164" s="11">
+        <v>3</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="11">
+        <v>17</v>
+      </c>
+      <c r="B165" s="11">
+        <v>4</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="9">
+        <v>6</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="11">
+        <v>17</v>
+      </c>
+      <c r="B166" s="11">
+        <v>5</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="9">
+        <v>1</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="11">
+        <v>17</v>
+      </c>
+      <c r="B167" s="11">
+        <v>6</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="9">
+        <v>0</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F167" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="11">
+        <v>17</v>
+      </c>
+      <c r="B168" s="11">
+        <v>7</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="9">
+        <v>0</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="11">
+        <v>17</v>
+      </c>
+      <c r="B169" s="11">
+        <v>8</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="9">
+        <v>0</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="11">
+        <v>17</v>
+      </c>
+      <c r="B170" s="11">
+        <v>9</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="9">
+        <v>0</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="11">
+        <v>18</v>
+      </c>
+      <c r="B172" s="11">
+        <v>1</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="9">
+        <v>5</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="11">
+        <v>18</v>
+      </c>
+      <c r="B173" s="11">
+        <v>2</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="9">
+        <v>0</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="11">
+        <v>18</v>
+      </c>
+      <c r="B174" s="11">
+        <v>3</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="9">
+        <v>2</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="11">
+        <v>18</v>
+      </c>
+      <c r="B175" s="11">
+        <v>4</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="9">
+        <v>1</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="11">
+        <v>18</v>
+      </c>
+      <c r="B176" s="11">
+        <v>5</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="9">
+        <v>0</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="11">
+        <v>18</v>
+      </c>
+      <c r="B177" s="11">
+        <v>6</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="9">
+        <v>4</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="11">
+        <v>18</v>
+      </c>
+      <c r="B178" s="11">
+        <v>7</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="9">
+        <v>1</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F178" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="11">
+        <v>18</v>
+      </c>
+      <c r="B179" s="11">
+        <v>8</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="9">
+        <v>1</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="11">
+        <v>18</v>
+      </c>
+      <c r="B180" s="11">
+        <v>9</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" s="9">
+        <v>0</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="11">
+        <v>19</v>
+      </c>
+      <c r="B182" s="11">
+        <v>1</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="9">
+        <v>1</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="11">
+        <v>19</v>
+      </c>
+      <c r="B183" s="11">
+        <v>2</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="9">
+        <v>1</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="11">
+        <v>19</v>
+      </c>
+      <c r="B184" s="11">
+        <v>3</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="9">
+        <v>1</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="11">
+        <v>19</v>
+      </c>
+      <c r="B185" s="11">
+        <v>4</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="9">
+        <v>0</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="11">
+        <v>19</v>
+      </c>
+      <c r="B186" s="11">
+        <v>5</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="9">
+        <v>0</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="11">
+        <v>19</v>
+      </c>
+      <c r="B187" s="11">
+        <v>6</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="9">
+        <v>1</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="11">
+        <v>19</v>
+      </c>
+      <c r="B188" s="11">
+        <v>7</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="9">
+        <v>0</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="11">
+        <v>19</v>
+      </c>
+      <c r="B189" s="11">
+        <v>8</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="9">
+        <v>1</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="11">
+        <v>19</v>
+      </c>
+      <c r="B190" s="11">
+        <v>9</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="9">
+        <v>2</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="11">
+        <v>20</v>
+      </c>
+      <c r="B192" s="11">
+        <v>1</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="9">
+        <v>1</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <v>20</v>
+      </c>
+      <c r="B193" s="11">
+        <v>2</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="9">
+        <v>1</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="11">
+        <v>20</v>
+      </c>
+      <c r="B194" s="11">
+        <v>3</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="9">
+        <v>0</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="11">
+        <v>20</v>
+      </c>
+      <c r="B195" s="11">
+        <v>4</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="9">
+        <v>4</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="11">
+        <v>20</v>
+      </c>
+      <c r="B196" s="11">
+        <v>5</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="9">
+        <v>1</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="11">
+        <v>20</v>
+      </c>
+      <c r="B197" s="11">
+        <v>6</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="9">
+        <v>0</v>
+      </c>
+      <c r="E197" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="11">
+        <v>20</v>
+      </c>
+      <c r="B198" s="11">
+        <v>7</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="9">
+        <v>0</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="11">
+        <v>20</v>
+      </c>
+      <c r="B199" s="11">
+        <v>8</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="9">
+        <v>1</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="11">
+        <v>20</v>
+      </c>
+      <c r="B200" s="11">
+        <v>9</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="9">
+        <v>1</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="11">
+        <v>21</v>
+      </c>
+      <c r="B202" s="11">
+        <v>1</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="9">
+        <v>4</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="11">
+        <v>21</v>
+      </c>
+      <c r="B203" s="11">
+        <v>2</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="9">
+        <v>1</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="11">
+        <v>21</v>
+      </c>
+      <c r="B204" s="11">
+        <v>3</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="9">
+        <v>3</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="11">
+        <v>21</v>
+      </c>
+      <c r="B205" s="11">
+        <v>4</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="9">
+        <v>3</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="11">
+        <v>21</v>
+      </c>
+      <c r="B206" s="11">
+        <v>5</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="9">
+        <v>3</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="11">
+        <v>21</v>
+      </c>
+      <c r="B207" s="11">
+        <v>6</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="9">
+        <v>2</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F207" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="11">
+        <v>21</v>
+      </c>
+      <c r="B208" s="11">
+        <v>7</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" s="9">
+        <v>0</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="11">
+        <v>21</v>
+      </c>
+      <c r="B209" s="11">
+        <v>8</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="9">
+        <v>2</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F209" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="11">
+        <v>21</v>
+      </c>
+      <c r="B210" s="11">
+        <v>9</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="9">
+        <v>0</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="11">
+        <v>22</v>
+      </c>
+      <c r="B212" s="11">
+        <v>1</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="9">
+        <v>0</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="11">
+        <v>22</v>
+      </c>
+      <c r="B213" s="11">
+        <v>2</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="9">
+        <v>4</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="11">
+        <v>22</v>
+      </c>
+      <c r="B214" s="11">
+        <v>3</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="9">
+        <v>1</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="11">
+        <v>22</v>
+      </c>
+      <c r="B215" s="11">
+        <v>4</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="9">
+        <v>4</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="11">
+        <v>22</v>
+      </c>
+      <c r="B216" s="11">
+        <v>5</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="9">
+        <v>5</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="11">
+        <v>22</v>
+      </c>
+      <c r="B217" s="11">
+        <v>6</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="9">
+        <v>0</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="11">
+        <v>22</v>
+      </c>
+      <c r="B218" s="11">
+        <v>7</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" s="9">
+        <v>0</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F218" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="11">
+        <v>22</v>
+      </c>
+      <c r="B219" s="11">
+        <v>8</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="9">
+        <v>5</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="11">
+        <v>22</v>
+      </c>
+      <c r="B220" s="11">
+        <v>9</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="9">
+        <v>0</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="11">
+        <v>23</v>
+      </c>
+      <c r="B222" s="11">
+        <v>1</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="9">
+        <v>2</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="11">
+        <v>23</v>
+      </c>
+      <c r="B223" s="11">
+        <v>2</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="9">
+        <v>0</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="11">
+        <v>23</v>
+      </c>
+      <c r="B224" s="11">
+        <v>3</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" s="9">
+        <v>3</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="11">
+        <v>23</v>
+      </c>
+      <c r="B225" s="11">
+        <v>4</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" s="9">
+        <v>0</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="11">
+        <v>23</v>
+      </c>
+      <c r="B226" s="11">
+        <v>5</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="9">
+        <v>1</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="11">
+        <v>23</v>
+      </c>
+      <c r="B227" s="11">
+        <v>6</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" s="9">
+        <v>2</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="11">
+        <v>23</v>
+      </c>
+      <c r="B228" s="11">
+        <v>7</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="9">
+        <v>2</v>
+      </c>
+      <c r="E228" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F228" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="11">
+        <v>23</v>
+      </c>
+      <c r="B229" s="11">
+        <v>8</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="9">
+        <v>1</v>
+      </c>
+      <c r="E229" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="11">
+        <v>23</v>
+      </c>
+      <c r="B230" s="11">
+        <v>9</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="9">
+        <v>2</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="11">
+        <v>24</v>
+      </c>
+      <c r="B232" s="11">
+        <v>1</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="9">
+        <v>3</v>
+      </c>
+      <c r="E232" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="11">
+        <v>24</v>
+      </c>
+      <c r="B233" s="11">
+        <v>2</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="9">
+        <v>3</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="11">
+        <v>24</v>
+      </c>
+      <c r="B234" s="11">
+        <v>3</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" s="9">
+        <v>5</v>
+      </c>
+      <c r="E234" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="11">
+        <v>24</v>
+      </c>
+      <c r="B235" s="11">
+        <v>4</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="9">
+        <v>2</v>
+      </c>
+      <c r="E235" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="11">
+        <v>24</v>
+      </c>
+      <c r="B236" s="11">
+        <v>5</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="9">
+        <v>0</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="11">
+        <v>24</v>
+      </c>
+      <c r="B237" s="11">
+        <v>6</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" s="9">
+        <v>0</v>
+      </c>
+      <c r="E237" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F237" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="11">
+        <v>24</v>
+      </c>
+      <c r="B238" s="11">
+        <v>7</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="9">
+        <v>1</v>
+      </c>
+      <c r="E238" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="11">
+        <v>24</v>
+      </c>
+      <c r="B239" s="11">
+        <v>8</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" s="9">
+        <v>1</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F239" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="11">
+        <v>24</v>
+      </c>
+      <c r="B240" s="11">
+        <v>9</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" s="9">
+        <v>1</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="11">
+        <v>25</v>
+      </c>
+      <c r="B242" s="11">
+        <v>1</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="9">
+        <v>3</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="11">
+        <v>25</v>
+      </c>
+      <c r="B243" s="11">
+        <v>2</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D243" s="9">
+        <v>4</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="11">
+        <v>25</v>
+      </c>
+      <c r="B244" s="11">
+        <v>3</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" s="9">
+        <v>1</v>
+      </c>
+      <c r="E244" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="11">
+        <v>25</v>
+      </c>
+      <c r="B245" s="11">
+        <v>4</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245" s="9">
+        <v>0</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="11">
+        <v>25</v>
+      </c>
+      <c r="B246" s="11">
+        <v>5</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" s="9">
+        <v>2</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="11">
+        <v>25</v>
+      </c>
+      <c r="B247" s="11">
+        <v>6</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="9">
+        <v>1</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F247" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="11">
+        <v>25</v>
+      </c>
+      <c r="B248" s="11">
+        <v>7</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248" s="9">
+        <v>0</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="11">
+        <v>25</v>
+      </c>
+      <c r="B249" s="11">
+        <v>8</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" s="9">
+        <v>0</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="11">
+        <v>25</v>
+      </c>
+      <c r="B250" s="11">
+        <v>9</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="9">
+        <v>1</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="11">
+        <v>26</v>
+      </c>
+      <c r="B252" s="11">
+        <v>1</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="9">
+        <v>1</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="11">
+        <v>26</v>
+      </c>
+      <c r="B253" s="11">
+        <v>2</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" s="9">
+        <v>0</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="11">
+        <v>26</v>
+      </c>
+      <c r="B254" s="11">
+        <v>3</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254" s="9">
+        <v>0</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="11">
+        <v>26</v>
+      </c>
+      <c r="B255" s="11">
+        <v>4</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" s="9">
+        <v>4</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="11">
+        <v>26</v>
+      </c>
+      <c r="B256" s="11">
+        <v>5</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" s="9">
+        <v>0</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="11">
+        <v>26</v>
+      </c>
+      <c r="B257" s="11">
+        <v>6</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="9">
+        <v>2</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="11">
+        <v>26</v>
+      </c>
+      <c r="B258" s="11">
+        <v>7</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258" s="9">
+        <v>3</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F258" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="11">
+        <v>26</v>
+      </c>
+      <c r="B259" s="11">
+        <v>8</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="9">
+        <v>0</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="11">
+        <v>26</v>
+      </c>
+      <c r="B260" s="11">
+        <v>9</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" s="9">
+        <v>1</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F260" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="11">
+        <v>27</v>
+      </c>
+      <c r="B262" s="11">
+        <v>1</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="9">
+        <v>0</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="11">
+        <v>27</v>
+      </c>
+      <c r="B263" s="11">
+        <v>2</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="9">
+        <v>3</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="11">
+        <v>27</v>
+      </c>
+      <c r="B264" s="11">
+        <v>3</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" s="9">
+        <v>1</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F264" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="11">
+        <v>27</v>
+      </c>
+      <c r="B265" s="11">
+        <v>4</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265" s="9">
+        <v>2</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="11">
+        <v>27</v>
+      </c>
+      <c r="B266" s="11">
+        <v>5</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" s="9">
+        <v>6</v>
+      </c>
+      <c r="E266" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="11">
+        <v>27</v>
+      </c>
+      <c r="B267" s="11">
+        <v>6</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D267" s="9">
+        <v>0</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="11">
+        <v>27</v>
+      </c>
+      <c r="B268" s="11">
+        <v>7</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" s="9">
+        <v>3</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F268" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="11">
+        <v>27</v>
+      </c>
+      <c r="B269" s="11">
+        <v>8</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269" s="9">
+        <v>5</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="11">
+        <v>27</v>
+      </c>
+      <c r="B270" s="11">
+        <v>9</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="9">
+        <v>1</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F270" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="11">
+        <v>28</v>
+      </c>
+      <c r="B272" s="11">
+        <v>1</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272" s="9">
+        <v>0</v>
+      </c>
+      <c r="E272" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F272" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="11">
+        <v>28</v>
+      </c>
+      <c r="B273" s="11">
+        <v>2</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D273" s="9">
+        <v>2</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="11">
+        <v>28</v>
+      </c>
+      <c r="B274" s="11">
+        <v>3</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" s="9">
+        <v>0</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="11">
+        <v>28</v>
+      </c>
+      <c r="B275" s="11">
+        <v>4</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" s="9">
+        <v>1</v>
+      </c>
+      <c r="E275" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F275" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="11">
+        <v>28</v>
+      </c>
+      <c r="B276" s="11">
+        <v>5</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="9">
+        <v>1</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="11">
+        <v>28</v>
+      </c>
+      <c r="B277" s="11">
+        <v>6</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277" s="9">
+        <v>1</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="11">
+        <v>28</v>
+      </c>
+      <c r="B278" s="11">
+        <v>7</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" s="9">
+        <v>0</v>
+      </c>
+      <c r="E278" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="11">
+        <v>28</v>
+      </c>
+      <c r="B279" s="11">
+        <v>8</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" s="9">
+        <v>2</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F279" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="11">
+        <v>28</v>
+      </c>
+      <c r="B280" s="11">
+        <v>9</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" s="9">
+        <v>1</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F280" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="11">
+        <v>29</v>
+      </c>
+      <c r="B282" s="11">
+        <v>1</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" s="9">
+        <v>1</v>
+      </c>
+      <c r="E282" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F282" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="11">
+        <v>29</v>
+      </c>
+      <c r="B283" s="11">
+        <v>2</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" s="9">
+        <v>1</v>
+      </c>
+      <c r="E283" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F283" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="11">
+        <v>29</v>
+      </c>
+      <c r="B284" s="11">
+        <v>3</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D284" s="9">
+        <v>4</v>
+      </c>
+      <c r="E284" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="11">
+        <v>29</v>
+      </c>
+      <c r="B285" s="11">
+        <v>4</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" s="9">
+        <v>3</v>
+      </c>
+      <c r="E285" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="11">
+        <v>29</v>
+      </c>
+      <c r="B286" s="11">
+        <v>5</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D286" s="9">
+        <v>0</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="11">
+        <v>29</v>
+      </c>
+      <c r="B287" s="11">
+        <v>6</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" s="9">
+        <v>2</v>
+      </c>
+      <c r="E287" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="11">
+        <v>29</v>
+      </c>
+      <c r="B288" s="11">
+        <v>7</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="9">
+        <v>3</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="11">
+        <v>29</v>
+      </c>
+      <c r="B289" s="11">
+        <v>8</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" s="9">
+        <v>0</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="11">
+        <v>29</v>
+      </c>
+      <c r="B290" s="11">
+        <v>9</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="9">
+        <v>2</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="11">
+        <v>30</v>
+      </c>
+      <c r="B292" s="11">
+        <v>1</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D292" s="9">
+        <v>2</v>
+      </c>
+      <c r="E292" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="11">
+        <v>30</v>
+      </c>
+      <c r="B293" s="11">
+        <v>2</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" s="9">
+        <v>2</v>
+      </c>
+      <c r="E293" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="11">
+        <v>30</v>
+      </c>
+      <c r="B294" s="11">
+        <v>3</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294" s="9">
+        <v>0</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="11">
+        <v>30</v>
+      </c>
+      <c r="B295" s="11">
+        <v>4</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295" s="9">
+        <v>0</v>
+      </c>
+      <c r="E295" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="11">
+        <v>30</v>
+      </c>
+      <c r="B296" s="11">
+        <v>5</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D296" s="9">
+        <v>1</v>
+      </c>
+      <c r="E296" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="11">
+        <v>30</v>
+      </c>
+      <c r="B297" s="11">
+        <v>6</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D297" s="9">
+        <v>2</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="11">
+        <v>30</v>
+      </c>
+      <c r="B298" s="11">
+        <v>7</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="9">
+        <v>2</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="11">
+        <v>30</v>
+      </c>
+      <c r="B299" s="11">
+        <v>8</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" s="9">
+        <v>3</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="11">
+        <v>30</v>
+      </c>
+      <c r="B300" s="11">
+        <v>9</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="9">
+        <v>3</v>
+      </c>
+      <c r="E300" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F300" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="11">
         <v>31</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="B302" s="11">
+        <v>1</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D302" s="9">
+        <v>2</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F302" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="11">
+        <v>31</v>
+      </c>
+      <c r="B303" s="11">
+        <v>2</v>
+      </c>
+      <c r="C303" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" s="9">
+        <v>5</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F303" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="11">
+        <v>31</v>
+      </c>
+      <c r="B304" s="11">
+        <v>3</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="9">
+        <v>0</v>
+      </c>
+      <c r="E304" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F304" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="11">
+        <v>31</v>
+      </c>
+      <c r="B305" s="11">
+        <v>4</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D305" s="9">
+        <v>1</v>
+      </c>
+      <c r="E305" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="11">
+        <v>31</v>
+      </c>
+      <c r="B306" s="11">
+        <v>5</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D306" s="9">
+        <v>3</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="11">
+        <v>31</v>
+      </c>
+      <c r="B307" s="11">
+        <v>6</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="9">
+        <v>3</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="11">
+        <v>31</v>
+      </c>
+      <c r="B308" s="11">
+        <v>7</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" s="9">
+        <v>0</v>
+      </c>
+      <c r="E308" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="11">
+        <v>31</v>
+      </c>
+      <c r="B309" s="11">
+        <v>8</v>
+      </c>
+      <c r="C309" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="9">
+        <v>3</v>
+      </c>
+      <c r="E309" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="11">
+        <v>31</v>
+      </c>
+      <c r="B310" s="11">
+        <v>9</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D310" s="9">
+        <v>1</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F310" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="11">
+        <v>32</v>
+      </c>
+      <c r="B312" s="11">
+        <v>1</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D312" s="9">
+        <v>3</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F312" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="11">
+        <v>32</v>
+      </c>
+      <c r="B313" s="11">
+        <v>2</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" s="9">
+        <v>4</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F313" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="11">
+        <v>32</v>
+      </c>
+      <c r="B314" s="11">
+        <v>3</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="9">
+        <v>3</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F314" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="11">
+        <v>32</v>
+      </c>
+      <c r="B315" s="11">
+        <v>4</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315" s="9">
+        <v>3</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="11">
+        <v>32</v>
+      </c>
+      <c r="B316" s="11">
+        <v>5</v>
+      </c>
+      <c r="C316" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" s="9">
+        <v>5</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F316" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="11">
+        <v>32</v>
+      </c>
+      <c r="B317" s="11">
+        <v>6</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" s="9">
+        <v>0</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="11">
+        <v>32</v>
+      </c>
+      <c r="B318" s="11">
+        <v>7</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" s="9">
+        <v>0</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="11">
+        <v>32</v>
+      </c>
+      <c r="B319" s="11">
+        <v>8</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="9">
+        <v>3</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="11">
+        <v>32</v>
+      </c>
+      <c r="B320" s="11">
+        <v>9</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="9">
+        <v>0</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F320" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="11">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
+      <c r="B322" s="11">
+        <v>1</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322" s="9">
+        <v>1</v>
+      </c>
+      <c r="E322" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F322" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="11">
+        <v>33</v>
+      </c>
+      <c r="B323" s="11">
+        <v>2</v>
+      </c>
+      <c r="C323" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" s="9">
+        <v>1</v>
+      </c>
+      <c r="E323" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F323" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="11">
+        <v>33</v>
+      </c>
+      <c r="B324" s="11">
+        <v>3</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D324" s="9">
+        <v>0</v>
+      </c>
+      <c r="E324" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F324" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="11">
+        <v>33</v>
+      </c>
+      <c r="B325" s="11">
+        <v>4</v>
+      </c>
+      <c r="C325" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" s="9">
+        <v>0</v>
+      </c>
+      <c r="E325" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F325" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="11">
+        <v>33</v>
+      </c>
+      <c r="B326" s="11">
+        <v>5</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326" s="9">
+        <v>1</v>
+      </c>
+      <c r="E326" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="11">
+        <v>33</v>
+      </c>
+      <c r="B327" s="11">
+        <v>6</v>
+      </c>
+      <c r="C327" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" s="9">
+        <v>0</v>
+      </c>
+      <c r="E327" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F327" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="11">
+        <v>33</v>
+      </c>
+      <c r="B328" s="11">
+        <v>7</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="9">
+        <v>0</v>
+      </c>
+      <c r="E328" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="11">
+        <v>33</v>
+      </c>
+      <c r="B329" s="11">
+        <v>8</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="9">
+        <v>0</v>
+      </c>
+      <c r="E329" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="11">
+        <v>33</v>
+      </c>
+      <c r="B330" s="11">
+        <v>9</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330" s="9">
+        <v>3</v>
+      </c>
+      <c r="E330" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F330" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="11">
+        <v>34</v>
+      </c>
+      <c r="B332" s="11">
+        <v>1</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332" s="9">
+        <v>1</v>
+      </c>
+      <c r="E332" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F332" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="11">
+        <v>34</v>
+      </c>
+      <c r="B333" s="11">
+        <v>2</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" s="9">
+        <v>1</v>
+      </c>
+      <c r="E333" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F333" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="11">
+        <v>34</v>
+      </c>
+      <c r="B334" s="11">
+        <v>3</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D334" s="9">
+        <v>0</v>
+      </c>
+      <c r="E334" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F334" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="11">
+        <v>34</v>
+      </c>
+      <c r="B335" s="11">
+        <v>4</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D335" s="9">
+        <v>4</v>
+      </c>
+      <c r="E335" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="11">
+        <v>34</v>
+      </c>
+      <c r="B336" s="11">
+        <v>5</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D336" s="9">
+        <v>1</v>
+      </c>
+      <c r="E336" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F336" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="11">
+        <v>34</v>
+      </c>
+      <c r="B337" s="11">
+        <v>6</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" s="9">
+        <v>0</v>
+      </c>
+      <c r="E337" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F337" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="11">
+        <v>34</v>
+      </c>
+      <c r="B338" s="11">
+        <v>7</v>
+      </c>
+      <c r="C338" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="9">
+        <v>0</v>
+      </c>
+      <c r="E338" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F338" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="11">
+        <v>34</v>
+      </c>
+      <c r="B339" s="11">
+        <v>8</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="9">
+        <v>3</v>
+      </c>
+      <c r="E339" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="11">
+        <v>34</v>
+      </c>
+      <c r="B340" s="11">
+        <v>9</v>
+      </c>
+      <c r="C340" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="9">
+        <v>0</v>
+      </c>
+      <c r="E340" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F340" s="9">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/HA2_Liste/Excel_Tabellen/Teams.xlsx
+++ b/HA2_Liste/Excel_Tabellen/Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\OneDrive\Documents\GitHub\Hausaufgabe2\HA2_Liste\Excel_Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E68A81F2-C091-4B28-9BE8-BB1B395B8A63}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{DFA93BE5-79C5-4C3D-B1A9-35C81FDF8C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{16A3EED2-0101-46AF-8802-755F8A51E3EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B0D13B5-184E-483D-BBDF-4B60CF9F19CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaften" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="35">
   <si>
     <t>Teamname</t>
+  </si>
+  <si>
+    <t>Teamnr.</t>
   </si>
   <si>
     <t>FC Augsburg</t>
@@ -136,9 +139,6 @@
   <si>
     <t xml:space="preserve"> Gast Tore</t>
   </si>
-  <si>
-    <t>Teamnr.</t>
-  </si>
 </sst>
 </file>
 
@@ -208,7 +208,7 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98CDC2F-04B0-4000-9CD2-E547899965E2}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -573,12 +573,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -731,9 +731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D670B5C-AF20-4DBA-856A-5513693A1D28}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,181 +747,181 @@
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>34</v>
       </c>
       <c r="C2" s="12">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="7">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H2" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I2" s="7">
         <f>G2-H2</f>
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>34</v>
       </c>
       <c r="C3" s="12">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7">
+        <v>57</v>
+      </c>
+      <c r="H3" s="7">
         <v>61</v>
-      </c>
-      <c r="D3" s="7">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7">
-        <v>64</v>
-      </c>
-      <c r="H3" s="7">
-        <v>56</v>
       </c>
       <c r="I3" s="7">
         <f>G3-H3</f>
-        <v>8</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>34</v>
       </c>
       <c r="C4" s="12">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7">
         <f>G4-H4</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>34</v>
       </c>
       <c r="C5" s="12">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7">
         <f>G5-H5</f>
-        <v>21</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>34</v>
       </c>
       <c r="C6" s="12">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H6" s="7">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="I6" s="7">
         <f>G6-H6</f>
-        <v>-8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -932,31 +932,31 @@
         <v>34</v>
       </c>
       <c r="C7" s="12">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7">
         <f>G7-H7</f>
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>34</v>
@@ -965,58 +965,58 @@
         <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7">
+        <v>51</v>
+      </c>
+      <c r="H8" s="7">
         <v>47</v>
-      </c>
-      <c r="H8" s="7">
-        <v>37</v>
       </c>
       <c r="I8" s="7">
         <f>G8-H8</f>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>34</v>
       </c>
       <c r="C9" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
         <f>G9-H9</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>34</v>
@@ -1025,49 +1025,49 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
         <f>G10-H10</f>
-        <v>-21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>34</v>
       </c>
       <c r="C11" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
         <v>13</v>
       </c>
       <c r="E11" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
         <f>G11-H11</f>
@@ -1082,31 +1082,31 @@
         <v>34</v>
       </c>
       <c r="C12" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
         <v>13</v>
       </c>
       <c r="E12" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
       </c>
       <c r="I12" s="7">
         <f>G12-H12</f>
-        <v>-15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>34</v>
@@ -1115,148 +1115,148 @@
         <v>45</v>
       </c>
       <c r="D13" s="7">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
         <v>12</v>
       </c>
-      <c r="E13" s="6">
-        <v>9</v>
-      </c>
       <c r="F13" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
         <f>G13-H13</f>
-        <v>-31</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>34</v>
       </c>
       <c r="C14" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
         <v>12</v>
       </c>
       <c r="E14" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
         <f>G14-H14</f>
-        <v>9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>34</v>
       </c>
       <c r="C15" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
         <v>12</v>
       </c>
       <c r="E15" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I15" s="7">
         <f>G15-H15</f>
-        <v>-10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>34</v>
       </c>
       <c r="C16" s="12">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
         <v>10</v>
-      </c>
-      <c r="E16" s="6">
-        <v>11</v>
       </c>
       <c r="F16" s="7">
         <v>13</v>
       </c>
       <c r="G16" s="7">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
         <f>G16-H16</f>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>34</v>
       </c>
       <c r="C17" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
         <v>9</v>
       </c>
       <c r="E17" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I17" s="7">
         <f>G17-H17</f>
-        <v>-34</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>34</v>
@@ -1265,53 +1265,53 @@
         <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I18" s="7">
         <f>G18-H18</f>
-        <v>-9</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>34</v>
       </c>
       <c r="C19" s="12">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I19" s="7">
         <f>G19-H19</f>
-        <v>-19</v>
+        <v>-11</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1350,22 +1350,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,16 +1376,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,13 +1396,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -1416,16 +1416,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,16 +1436,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,16 +1456,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1476,16 +1476,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1496,16 +1496,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1516,16 +1516,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,16 +1536,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,16 +1579,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,16 +1599,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,16 +1619,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,16 +1639,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,16 +1659,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,16 +1679,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,16 +1699,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,13 +1719,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="9">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,13 +1759,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="9">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,16 +1799,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,13 +1819,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -1839,16 +1839,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,16 +1859,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="9">
         <v>0</v>
@@ -1899,16 +1899,16 @@
         <v>9</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,16 +1919,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,16 +1939,16 @@
         <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,16 +1959,16 @@
         <v>3</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="9">
         <v>0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,16 +1979,16 @@
         <v>4</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,16 +1999,16 @@
         <v>5</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2019,16 @@
         <v>6</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F37" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,13 +2039,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,16 +2079,16 @@
         <v>9</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,16 +2099,16 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2119,13 +2119,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="9">
         <v>0</v>
@@ -2139,16 +2139,16 @@
         <v>3</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,16 +2159,16 @@
         <v>4</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="9">
         <v>0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,16 +2179,16 @@
         <v>5</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,16 +2199,16 @@
         <v>6</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,16 +2219,16 @@
         <v>7</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2239,16 +2239,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,16 +2259,16 @@
         <v>9</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,16 +2299,16 @@
         <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,16 +2319,16 @@
         <v>3</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2339,16 +2339,16 @@
         <v>4</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F55" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,16 +2359,16 @@
         <v>5</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2379,16 +2379,16 @@
         <v>6</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,16 +2399,16 @@
         <v>7</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2419,16 +2419,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="9">
         <v>2</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,16 +2439,16 @@
         <v>9</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="9">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>2</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,13 +2499,13 @@
         <v>3</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -2519,16 +2519,16 @@
         <v>4</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F65" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,16 +2539,16 @@
         <v>5</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" s="9">
         <v>1</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,16 +2559,16 @@
         <v>6</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" s="9">
         <v>1</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2579,16 +2579,16 @@
         <v>7</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F68" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2599,16 +2599,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2619,16 +2619,16 @@
         <v>9</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F70" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2639,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -2659,16 +2659,16 @@
         <v>2</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,16 +2679,16 @@
         <v>3</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,16 +2699,16 @@
         <v>4</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,16 +2719,16 @@
         <v>5</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F76" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F77" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,16 +2759,16 @@
         <v>7</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F78" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2779,16 +2779,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F79" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,13 +2799,13 @@
         <v>9</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -2819,16 +2819,16 @@
         <v>1</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F82" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,13 +2839,13 @@
         <v>2</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="9">
         <v>1</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -2859,16 +2859,16 @@
         <v>3</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2879,13 +2879,13 @@
         <v>4</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" s="9">
         <v>0</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" s="9">
         <v>0</v>
@@ -2899,16 +2899,16 @@
         <v>5</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F86" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2919,16 +2919,16 @@
         <v>6</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F87" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,13 +2939,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="9">
         <v>0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F89" s="9">
         <v>0</v>
@@ -2979,16 +2979,16 @@
         <v>9</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F90" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,16 +2999,16 @@
         <v>1</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F92" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,16 +3019,16 @@
         <v>2</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,16 +3039,16 @@
         <v>3</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="9">
         <v>5</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F94" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3059,16 +3059,16 @@
         <v>4</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,16 +3079,16 @@
         <v>5</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3099,13 +3099,13 @@
         <v>6</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F97" s="9">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>7</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F98" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3139,13 +3139,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F99" s="9">
         <v>2</v>
@@ -3159,16 +3159,16 @@
         <v>9</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F100" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3179,16 +3179,16 @@
         <v>1</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F102" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,16 +3199,16 @@
         <v>2</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F103" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3219,16 +3219,16 @@
         <v>3</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F104" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,16 +3239,16 @@
         <v>4</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,16 +3259,16 @@
         <v>5</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="9">
         <v>1</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,13 +3279,13 @@
         <v>6</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F107" s="9">
         <v>0</v>
@@ -3299,16 +3299,16 @@
         <v>7</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F108" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3319,13 +3319,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F109" s="9">
         <v>0</v>
@@ -3339,16 +3339,16 @@
         <v>9</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D110" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F110" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,16 +3359,16 @@
         <v>1</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F112" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3379,16 +3379,16 @@
         <v>2</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F113" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,16 +3399,16 @@
         <v>3</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F114" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3419,13 +3419,13 @@
         <v>4</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D115" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F115" s="9">
         <v>3</v>
@@ -3439,16 +3439,16 @@
         <v>5</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3459,16 +3459,16 @@
         <v>6</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" s="9">
         <v>0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,13 +3479,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" s="9">
         <v>0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F119" s="9">
         <v>0</v>
@@ -3519,16 +3519,16 @@
         <v>9</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F120" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,16 +3539,16 @@
         <v>1</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F122" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,16 +3559,16 @@
         <v>2</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F123" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,13 +3579,13 @@
         <v>3</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
@@ -3599,16 +3599,16 @@
         <v>4</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F125" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3619,16 +3619,16 @@
         <v>5</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D126" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F126" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,16 +3639,16 @@
         <v>6</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D127" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,13 +3659,13 @@
         <v>7</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F128" s="9">
         <v>0</v>
@@ -3679,16 +3679,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F129" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,16 +3699,16 @@
         <v>9</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F130" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3719,16 +3719,16 @@
         <v>1</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="9">
         <v>1</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F132" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3739,16 +3739,16 @@
         <v>2</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F133" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3759,16 +3759,16 @@
         <v>3</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D134" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F134" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3779,16 +3779,16 @@
         <v>4</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F135" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,16 +3799,16 @@
         <v>5</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D136" s="9">
         <v>0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,16 +3819,16 @@
         <v>6</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3839,16 +3839,16 @@
         <v>7</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D138" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,16 +3859,16 @@
         <v>8</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D139" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F139" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3879,13 +3879,13 @@
         <v>9</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D140" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F140" s="9">
         <v>0</v>
@@ -3899,16 +3899,16 @@
         <v>1</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" s="9">
         <v>1</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F142" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,13 +3919,13 @@
         <v>2</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" s="9">
         <v>0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F143" s="9">
         <v>1</v>
@@ -3939,16 +3939,16 @@
         <v>3</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F144" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,13 +3959,13 @@
         <v>4</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D145" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F145" s="9">
         <v>2</v>
@@ -3979,16 +3979,16 @@
         <v>5</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D146" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F146" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3999,16 +3999,16 @@
         <v>6</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D147" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4019,16 +4019,16 @@
         <v>7</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D148" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,16 +4039,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D149" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F149" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4059,13 +4059,13 @@
         <v>9</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F150" s="9">
         <v>1</v>
@@ -4079,16 +4079,16 @@
         <v>1</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F152" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,16 +4099,16 @@
         <v>2</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D153" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F153" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,16 +4119,16 @@
         <v>3</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D154" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F154" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,16 +4139,16 @@
         <v>4</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D155" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F155" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4159,16 +4159,16 @@
         <v>5</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D156" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F156" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,16 +4179,16 @@
         <v>6</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D157" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F157" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,16 +4199,16 @@
         <v>7</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D158" s="9">
         <v>0</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F158" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,16 +4219,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D159" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,16 +4239,16 @@
         <v>9</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D160" s="9">
         <v>1</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F160" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,16 +4259,16 @@
         <v>1</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D162" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F162" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,16 +4279,16 @@
         <v>2</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F163" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,16 +4299,16 @@
         <v>3</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D164" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F164" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,16 +4319,16 @@
         <v>4</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D165" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F165" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,16 +4339,16 @@
         <v>5</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D166" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F166" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4359,16 +4359,16 @@
         <v>6</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D167" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F167" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4379,16 +4379,16 @@
         <v>7</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D168" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F168" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4399,13 +4399,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D169" s="9">
         <v>0</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" s="9">
         <v>0</v>
@@ -4419,16 +4419,16 @@
         <v>9</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F170" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4439,16 +4439,16 @@
         <v>1</v>
       </c>
       <c r="C172" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="9">
+        <v>1</v>
+      </c>
+      <c r="E172" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="9">
-        <v>5</v>
-      </c>
-      <c r="E172" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="F172" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,16 +4459,16 @@
         <v>2</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" s="9">
         <v>0</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F173" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4479,16 +4479,16 @@
         <v>3</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D174" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F174" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4499,16 +4499,16 @@
         <v>4</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D175" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F175" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4519,16 +4519,16 @@
         <v>5</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D176" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F176" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,16 +4539,16 @@
         <v>6</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D177" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F177" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4559,16 +4559,16 @@
         <v>7</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D178" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F178" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4579,16 +4579,16 @@
         <v>8</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D179" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F179" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,16 +4599,16 @@
         <v>9</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F180" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,16 +4619,16 @@
         <v>1</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D182" s="9">
         <v>1</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F182" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,16 +4639,16 @@
         <v>2</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D183" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F183" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,16 +4659,16 @@
         <v>3</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D184" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F184" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,16 +4679,16 @@
         <v>4</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D185" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F185" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4699,16 +4699,16 @@
         <v>5</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D186" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F186" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4719,16 +4719,16 @@
         <v>6</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D187" s="9">
         <v>1</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F187" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,16 +4739,16 @@
         <v>7</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D188" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F188" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4759,13 +4759,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F189" s="9">
         <v>0</v>
@@ -4779,16 +4779,16 @@
         <v>9</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D190" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F190" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,16 +4799,16 @@
         <v>1</v>
       </c>
       <c r="C192" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="9">
+        <v>3</v>
+      </c>
+      <c r="E192" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="9">
-        <v>1</v>
-      </c>
-      <c r="E192" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="F192" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4819,16 +4819,16 @@
         <v>2</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D193" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F193" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4839,16 +4839,16 @@
         <v>3</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D194" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F194" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4859,16 +4859,16 @@
         <v>4</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D195" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F195" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,16 +4879,16 @@
         <v>5</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D196" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F196" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4899,16 +4899,16 @@
         <v>6</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D197" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F197" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4919,16 +4919,16 @@
         <v>7</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D198" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F198" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,16 +4939,16 @@
         <v>8</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F199" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4959,13 +4959,13 @@
         <v>9</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D200" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F200" s="9">
         <v>4</v>
@@ -4979,16 +4979,16 @@
         <v>1</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D202" s="9">
         <v>4</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4999,16 +4999,16 @@
         <v>2</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D203" s="9">
         <v>1</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F203" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5019,16 +5019,16 @@
         <v>3</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D204" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F204" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5039,16 +5039,16 @@
         <v>4</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D205" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F205" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5059,16 +5059,16 @@
         <v>5</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D206" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F206" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5079,16 +5079,16 @@
         <v>6</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D207" s="9">
         <v>2</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F207" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,16 +5099,16 @@
         <v>7</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F208" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,16 +5119,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209" s="9">
         <v>2</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F209" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5139,13 +5139,13 @@
         <v>9</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D210" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F210" s="9">
         <v>0</v>
@@ -5159,16 +5159,16 @@
         <v>1</v>
       </c>
       <c r="C212" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="9">
+        <v>1</v>
+      </c>
+      <c r="E212" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D212" s="9">
-        <v>0</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="F212" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5179,13 +5179,13 @@
         <v>2</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D213" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" s="9">
         <v>0</v>
@@ -5199,16 +5199,16 @@
         <v>3</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D214" s="9">
         <v>1</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F214" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,16 +5219,16 @@
         <v>4</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D215" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F215" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5239,16 +5239,16 @@
         <v>5</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D216" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F216" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5259,13 +5259,13 @@
         <v>6</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D217" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F217" s="9">
         <v>2</v>
@@ -5279,16 +5279,16 @@
         <v>7</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F218" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5299,16 +5299,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F219" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5319,13 +5319,13 @@
         <v>9</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D220" s="9">
         <v>0</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F220" s="9">
         <v>0</v>
@@ -5339,16 +5339,16 @@
         <v>1</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D222" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5359,16 +5359,16 @@
         <v>2</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D223" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5379,16 +5379,16 @@
         <v>3</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D224" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F224" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5399,13 +5399,13 @@
         <v>4</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D225" s="9">
         <v>0</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F225" s="9">
         <v>1</v>
@@ -5419,16 +5419,16 @@
         <v>5</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D226" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F226" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5439,16 +5439,16 @@
         <v>6</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F227" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5459,16 +5459,16 @@
         <v>7</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228" s="9">
         <v>2</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F228" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5479,16 +5479,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D229" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F229" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5499,16 +5499,16 @@
         <v>9</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D230" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F230" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5519,13 +5519,13 @@
         <v>1</v>
       </c>
       <c r="C232" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="9">
+        <v>1</v>
+      </c>
+      <c r="E232" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D232" s="9">
-        <v>3</v>
-      </c>
-      <c r="E232" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="F232" s="9">
         <v>1</v>
@@ -5539,13 +5539,13 @@
         <v>2</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D233" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F233" s="9">
         <v>1</v>
@@ -5559,16 +5559,16 @@
         <v>3</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D234" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -5579,16 +5579,16 @@
         <v>4</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D235" s="9">
         <v>2</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F235" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -5599,16 +5599,16 @@
         <v>5</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D236" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F236" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,13 +5619,13 @@
         <v>6</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F237" s="9">
         <v>2</v>
@@ -5639,16 +5639,16 @@
         <v>7</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D238" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F238" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5659,13 +5659,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D239" s="9">
         <v>1</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F239" s="9">
         <v>0</v>
@@ -5679,13 +5679,13 @@
         <v>9</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D240" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F240" s="9">
         <v>3</v>
@@ -5699,13 +5699,13 @@
         <v>1</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D242" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F242" s="9">
         <v>0</v>
@@ -5719,13 +5719,13 @@
         <v>2</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D243" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F243" s="9">
         <v>0</v>
@@ -5739,16 +5739,16 @@
         <v>3</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D244" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F244" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5759,16 +5759,16 @@
         <v>4</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D245" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F245" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,16 +5779,16 @@
         <v>5</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F246" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5799,16 +5799,16 @@
         <v>6</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D247" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F247" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,16 +5819,16 @@
         <v>7</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D248" s="9">
         <v>0</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F248" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,16 +5839,16 @@
         <v>8</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D249" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F249" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5859,16 +5859,16 @@
         <v>9</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D250" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F250" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5879,16 +5879,16 @@
         <v>1</v>
       </c>
       <c r="C252" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="9">
+        <v>1</v>
+      </c>
+      <c r="E252" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D252" s="9">
-        <v>1</v>
-      </c>
-      <c r="E252" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="F252" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -5899,16 +5899,16 @@
         <v>2</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D253" s="9">
         <v>0</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F253" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5919,16 +5919,16 @@
         <v>3</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D254" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F254" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5939,16 +5939,16 @@
         <v>4</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D255" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F255" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5959,13 +5959,13 @@
         <v>5</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F256" s="9">
         <v>1</v>
@@ -5979,16 +5979,16 @@
         <v>6</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D257" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F257" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5999,13 +5999,13 @@
         <v>7</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D258" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F258" s="9">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>8</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D259" s="9">
         <v>0</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F259" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6039,16 +6039,16 @@
         <v>9</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F260" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,16 +6059,16 @@
         <v>1</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D262" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F262" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6079,16 +6079,16 @@
         <v>2</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D263" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F263" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6099,16 +6099,16 @@
         <v>3</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D264" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F264" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6119,13 +6119,13 @@
         <v>4</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F265" s="9">
         <v>1</v>
@@ -6139,13 +6139,13 @@
         <v>5</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D266" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F266" s="9">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D267" s="9">
         <v>0</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F267" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,16 +6179,16 @@
         <v>7</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D268" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F268" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,13 +6199,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D269" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F269" s="9">
         <v>0</v>
@@ -6219,13 +6219,13 @@
         <v>9</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D270" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F270" s="9">
         <v>0</v>
@@ -6239,13 +6239,13 @@
         <v>1</v>
       </c>
       <c r="C272" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D272" s="9">
+        <v>0</v>
+      </c>
+      <c r="E272" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="D272" s="9">
-        <v>0</v>
-      </c>
-      <c r="E272" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="F272" s="9">
         <v>0</v>
@@ -6259,13 +6259,13 @@
         <v>2</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D273" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F273" s="9">
         <v>2</v>
@@ -6279,16 +6279,16 @@
         <v>3</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D274" s="9">
         <v>0</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F274" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,16 +6299,16 @@
         <v>4</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F275" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6319,16 +6319,16 @@
         <v>5</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D276" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F276" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6339,13 +6339,13 @@
         <v>6</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D277" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F277" s="9">
         <v>1</v>
@@ -6359,16 +6359,16 @@
         <v>7</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D278" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F278" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6379,13 +6379,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D279" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F279" s="9">
         <v>2</v>
@@ -6399,13 +6399,13 @@
         <v>9</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D280" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F280" s="9">
         <v>1</v>
@@ -6419,16 +6419,16 @@
         <v>1</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D282" s="9">
         <v>1</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F282" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6439,16 +6439,16 @@
         <v>2</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D283" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F283" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6459,16 +6459,16 @@
         <v>3</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D284" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F284" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6479,13 +6479,13 @@
         <v>4</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D285" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F285" s="9">
         <v>0</v>
@@ -6499,16 +6499,16 @@
         <v>5</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D286" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F286" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6519,13 +6519,13 @@
         <v>6</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D287" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F287" s="9">
         <v>0</v>
@@ -6539,13 +6539,13 @@
         <v>7</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D288" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F288" s="9">
         <v>1</v>
@@ -6559,16 +6559,16 @@
         <v>8</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D289" s="9">
         <v>0</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F289" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -6579,16 +6579,16 @@
         <v>9</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D290" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F290" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6599,16 +6599,16 @@
         <v>1</v>
       </c>
       <c r="C292" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" s="9">
+        <v>0</v>
+      </c>
+      <c r="E292" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D292" s="9">
-        <v>2</v>
-      </c>
-      <c r="E292" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="F292" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -6619,13 +6619,13 @@
         <v>2</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D293" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F293" s="9">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         <v>3</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F294" s="9">
         <v>0</v>
@@ -6659,16 +6659,16 @@
         <v>4</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D295" s="9">
         <v>0</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F295" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6679,13 +6679,13 @@
         <v>5</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D296" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F296" s="9">
         <v>0</v>
@@ -6699,16 +6699,16 @@
         <v>6</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D297" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F297" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6719,13 +6719,13 @@
         <v>7</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D298" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F298" s="9">
         <v>3</v>
@@ -6739,16 +6739,16 @@
         <v>8</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D299" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F299" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6759,16 +6759,16 @@
         <v>9</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D300" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F300" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6779,16 +6779,16 @@
         <v>1</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D302" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F302" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6799,16 +6799,16 @@
         <v>2</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F303" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -6819,16 +6819,16 @@
         <v>3</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D304" s="9">
         <v>0</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F304" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -6839,13 +6839,13 @@
         <v>4</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D305" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F305" s="9">
         <v>0</v>
@@ -6859,16 +6859,16 @@
         <v>5</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D306" s="9">
         <v>3</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F306" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,16 +6879,16 @@
         <v>6</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D307" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F307" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6899,16 +6899,16 @@
         <v>7</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D308" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F308" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6919,13 +6919,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D309" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F309" s="9">
         <v>0</v>
@@ -6939,16 +6939,16 @@
         <v>9</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D310" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F310" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,16 +6959,16 @@
         <v>1</v>
       </c>
       <c r="C312" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D312" s="9">
+        <v>2</v>
+      </c>
+      <c r="E312" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D312" s="9">
-        <v>3</v>
-      </c>
-      <c r="E312" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="F312" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,16 +6979,16 @@
         <v>2</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F313" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,16 +6999,16 @@
         <v>3</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D314" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F314" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -7019,16 +7019,16 @@
         <v>4</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D315" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F315" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7039,16 +7039,16 @@
         <v>5</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D316" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F316" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,16 +7059,16 @@
         <v>6</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D317" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F317" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -7079,16 +7079,16 @@
         <v>7</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D318" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F318" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,16 +7099,16 @@
         <v>8</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D319" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F319" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,16 +7119,16 @@
         <v>9</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D320" s="9">
         <v>0</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F320" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7139,13 +7139,13 @@
         <v>1</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F322" s="9">
         <v>1</v>
@@ -7159,13 +7159,13 @@
         <v>2</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D323" s="9">
         <v>1</v>
       </c>
       <c r="E323" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F323" s="9">
         <v>1</v>
@@ -7179,16 +7179,16 @@
         <v>3</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D324" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F324" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -7199,16 +7199,16 @@
         <v>4</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D325" s="9">
         <v>0</v>
       </c>
       <c r="E325" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F325" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7219,13 +7219,13 @@
         <v>5</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D326" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F326" s="9">
         <v>1</v>
@@ -7239,13 +7239,13 @@
         <v>6</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D327" s="9">
         <v>0</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F327" s="9">
         <v>2</v>
@@ -7259,16 +7259,16 @@
         <v>7</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D328" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E328" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F328" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,16 +7279,16 @@
         <v>8</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D329" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E329" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F329" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,16 +7299,16 @@
         <v>9</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D330" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F330" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7319,13 +7319,13 @@
         <v>1</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D332" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F332" s="9">
         <v>1</v>
@@ -7339,16 +7339,16 @@
         <v>2</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D333" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,16 +7359,16 @@
         <v>3</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F334" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7379,13 +7379,13 @@
         <v>4</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D335" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F335" s="9">
         <v>0</v>
@@ -7399,16 +7399,16 @@
         <v>5</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D336" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F336" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,16 +7419,16 @@
         <v>6</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D337" s="9">
         <v>0</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F337" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7439,16 +7439,16 @@
         <v>7</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D338" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F338" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,13 +7459,13 @@
         <v>8</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D339" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F339" s="9">
         <v>0</v>
@@ -7479,16 +7479,16 @@
         <v>9</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D340" s="9">
         <v>0</v>
       </c>
       <c r="E340" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F340" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7497,9 +7497,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7617,25 +7620,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21FF3668-C3F7-433B-9048-013C2A79257C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72305C2-23EF-4187-B10B-4BEF1AE453A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7657,9 +7650,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72305C2-23EF-4187-B10B-4BEF1AE453A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21FF3668-C3F7-433B-9048-013C2A79257C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>